--- a/datos.xlsx
+++ b/datos.xlsx
@@ -13,6 +13,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -20,15 +29,6 @@
   </si>
   <si>
     <t>city</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>version</t>
   </si>
   <si>
     <t>mia</t>
@@ -56,8 +56,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -86,9 +87,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -96,9 +100,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -320,3075 +325,4074 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>45687.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
         <v>39.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="F2" s="3">
         <v>1.0</v>
       </c>
-      <c r="D2" s="3">
-        <v>45658.0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5"/>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="E3" s="2">
         <v>30.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="F3" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="E4" s="2">
         <v>20.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5"/>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="E5" s="2">
         <v>38.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5"/>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="E6" s="2">
         <v>39.0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="F6" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5"/>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="E7" s="2">
         <v>50.0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="F7" s="3">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9">
-      <c r="C9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10">
-      <c r="C10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11">
-      <c r="C11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12">
-      <c r="C12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13">
-      <c r="C13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14">
-      <c r="C14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15">
-      <c r="C15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16">
-      <c r="C16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17">
-      <c r="C17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18">
-      <c r="C18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19">
-      <c r="C19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20">
-      <c r="C20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21">
-      <c r="C21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22">
-      <c r="C22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23">
-      <c r="C23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24">
-      <c r="C24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25">
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26">
-      <c r="C26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27">
-      <c r="C27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28">
-      <c r="C28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29">
-      <c r="C29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30">
-      <c r="C30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31">
-      <c r="C31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32">
-      <c r="C32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33">
-      <c r="C33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34">
-      <c r="C34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35">
-      <c r="C35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36">
-      <c r="C36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37">
-      <c r="C37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38">
-      <c r="C38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39">
-      <c r="C39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40">
-      <c r="C40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41">
-      <c r="C41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42">
-      <c r="C42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43">
-      <c r="C43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44">
-      <c r="C44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45">
-      <c r="C45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46">
-      <c r="C46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47">
-      <c r="C47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48">
-      <c r="C48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49">
-      <c r="C49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50">
-      <c r="C50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51">
-      <c r="C51" s="4"/>
+      <c r="A51" s="5"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52">
-      <c r="C52" s="4"/>
+      <c r="A52" s="5"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53">
-      <c r="C53" s="4"/>
+      <c r="A53" s="5"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54">
-      <c r="C54" s="4"/>
+      <c r="A54" s="5"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55">
-      <c r="C55" s="4"/>
+      <c r="A55" s="5"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56">
-      <c r="C56" s="4"/>
+      <c r="A56" s="5"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57">
-      <c r="C57" s="4"/>
+      <c r="A57" s="5"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58">
-      <c r="C58" s="4"/>
+      <c r="A58" s="5"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59">
-      <c r="C59" s="4"/>
+      <c r="A59" s="5"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60">
-      <c r="C60" s="4"/>
+      <c r="A60" s="5"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61">
-      <c r="C61" s="4"/>
+      <c r="A61" s="5"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62">
-      <c r="C62" s="4"/>
+      <c r="A62" s="5"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63">
-      <c r="C63" s="4"/>
+      <c r="A63" s="5"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64">
-      <c r="C64" s="4"/>
+      <c r="A64" s="5"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65">
-      <c r="C65" s="4"/>
+      <c r="A65" s="5"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66">
-      <c r="C66" s="4"/>
+      <c r="A66" s="5"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67">
-      <c r="C67" s="4"/>
+      <c r="A67" s="5"/>
+      <c r="F67" s="6"/>
     </row>
     <row r="68">
-      <c r="C68" s="4"/>
+      <c r="A68" s="5"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69">
-      <c r="C69" s="4"/>
+      <c r="A69" s="5"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70">
-      <c r="C70" s="4"/>
+      <c r="A70" s="5"/>
+      <c r="F70" s="6"/>
     </row>
     <row r="71">
-      <c r="C71" s="4"/>
+      <c r="A71" s="5"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72">
-      <c r="C72" s="4"/>
+      <c r="A72" s="5"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="73">
-      <c r="C73" s="4"/>
+      <c r="A73" s="5"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74">
-      <c r="C74" s="4"/>
+      <c r="A74" s="5"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75">
-      <c r="C75" s="4"/>
+      <c r="A75" s="5"/>
+      <c r="F75" s="6"/>
     </row>
     <row r="76">
-      <c r="C76" s="4"/>
+      <c r="A76" s="5"/>
+      <c r="F76" s="6"/>
     </row>
     <row r="77">
-      <c r="C77" s="4"/>
+      <c r="A77" s="5"/>
+      <c r="F77" s="6"/>
     </row>
     <row r="78">
-      <c r="C78" s="4"/>
+      <c r="A78" s="5"/>
+      <c r="F78" s="6"/>
     </row>
     <row r="79">
-      <c r="C79" s="4"/>
+      <c r="A79" s="5"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80">
-      <c r="C80" s="4"/>
+      <c r="A80" s="5"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81">
-      <c r="C81" s="4"/>
+      <c r="A81" s="5"/>
+      <c r="F81" s="6"/>
     </row>
     <row r="82">
-      <c r="C82" s="4"/>
+      <c r="A82" s="5"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83">
-      <c r="C83" s="4"/>
+      <c r="A83" s="5"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84">
-      <c r="C84" s="4"/>
+      <c r="A84" s="5"/>
+      <c r="F84" s="6"/>
     </row>
     <row r="85">
-      <c r="C85" s="4"/>
+      <c r="A85" s="5"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="86">
-      <c r="C86" s="4"/>
+      <c r="A86" s="5"/>
+      <c r="F86" s="6"/>
     </row>
     <row r="87">
-      <c r="C87" s="4"/>
+      <c r="A87" s="5"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88">
-      <c r="C88" s="4"/>
+      <c r="A88" s="5"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89">
-      <c r="C89" s="4"/>
+      <c r="A89" s="5"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90">
-      <c r="C90" s="4"/>
+      <c r="A90" s="5"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="91">
-      <c r="C91" s="4"/>
+      <c r="A91" s="5"/>
+      <c r="F91" s="6"/>
     </row>
     <row r="92">
-      <c r="C92" s="4"/>
+      <c r="A92" s="5"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93">
-      <c r="C93" s="4"/>
+      <c r="A93" s="5"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94">
-      <c r="C94" s="4"/>
+      <c r="A94" s="5"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95">
-      <c r="C95" s="4"/>
+      <c r="A95" s="5"/>
+      <c r="F95" s="6"/>
     </row>
     <row r="96">
-      <c r="C96" s="4"/>
+      <c r="A96" s="5"/>
+      <c r="F96" s="6"/>
     </row>
     <row r="97">
-      <c r="C97" s="4"/>
+      <c r="A97" s="5"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98">
-      <c r="C98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99">
-      <c r="C99" s="4"/>
+      <c r="A99" s="5"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100">
-      <c r="C100" s="4"/>
+      <c r="A100" s="5"/>
+      <c r="F100" s="6"/>
     </row>
     <row r="101">
-      <c r="C101" s="4"/>
+      <c r="A101" s="5"/>
+      <c r="F101" s="6"/>
     </row>
     <row r="102">
-      <c r="C102" s="4"/>
+      <c r="A102" s="5"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103">
-      <c r="C103" s="4"/>
+      <c r="A103" s="5"/>
+      <c r="F103" s="6"/>
     </row>
     <row r="104">
-      <c r="C104" s="4"/>
+      <c r="A104" s="5"/>
+      <c r="F104" s="6"/>
     </row>
     <row r="105">
-      <c r="C105" s="4"/>
+      <c r="A105" s="5"/>
+      <c r="F105" s="6"/>
     </row>
     <row r="106">
-      <c r="C106" s="4"/>
+      <c r="A106" s="5"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107">
-      <c r="C107" s="4"/>
+      <c r="A107" s="5"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108">
-      <c r="C108" s="4"/>
+      <c r="A108" s="5"/>
+      <c r="F108" s="6"/>
     </row>
     <row r="109">
-      <c r="C109" s="4"/>
+      <c r="A109" s="5"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110">
-      <c r="C110" s="4"/>
+      <c r="A110" s="5"/>
+      <c r="F110" s="6"/>
     </row>
     <row r="111">
-      <c r="C111" s="4"/>
+      <c r="A111" s="5"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112">
-      <c r="C112" s="4"/>
+      <c r="A112" s="5"/>
+      <c r="F112" s="6"/>
     </row>
     <row r="113">
-      <c r="C113" s="4"/>
+      <c r="A113" s="5"/>
+      <c r="F113" s="6"/>
     </row>
     <row r="114">
-      <c r="C114" s="4"/>
+      <c r="A114" s="5"/>
+      <c r="F114" s="6"/>
     </row>
     <row r="115">
-      <c r="C115" s="4"/>
+      <c r="A115" s="5"/>
+      <c r="F115" s="6"/>
     </row>
     <row r="116">
-      <c r="C116" s="4"/>
+      <c r="A116" s="5"/>
+      <c r="F116" s="6"/>
     </row>
     <row r="117">
-      <c r="C117" s="4"/>
+      <c r="A117" s="5"/>
+      <c r="F117" s="6"/>
     </row>
     <row r="118">
-      <c r="C118" s="4"/>
+      <c r="A118" s="5"/>
+      <c r="F118" s="6"/>
     </row>
     <row r="119">
-      <c r="C119" s="4"/>
+      <c r="A119" s="5"/>
+      <c r="F119" s="6"/>
     </row>
     <row r="120">
-      <c r="C120" s="4"/>
+      <c r="A120" s="5"/>
+      <c r="F120" s="6"/>
     </row>
     <row r="121">
-      <c r="C121" s="4"/>
+      <c r="A121" s="5"/>
+      <c r="F121" s="6"/>
     </row>
     <row r="122">
-      <c r="C122" s="4"/>
+      <c r="A122" s="5"/>
+      <c r="F122" s="6"/>
     </row>
     <row r="123">
-      <c r="C123" s="4"/>
+      <c r="A123" s="5"/>
+      <c r="F123" s="6"/>
     </row>
     <row r="124">
-      <c r="C124" s="4"/>
+      <c r="A124" s="5"/>
+      <c r="F124" s="6"/>
     </row>
     <row r="125">
-      <c r="C125" s="4"/>
+      <c r="A125" s="5"/>
+      <c r="F125" s="6"/>
     </row>
     <row r="126">
-      <c r="C126" s="4"/>
+      <c r="A126" s="5"/>
+      <c r="F126" s="6"/>
     </row>
     <row r="127">
-      <c r="C127" s="4"/>
+      <c r="A127" s="5"/>
+      <c r="F127" s="6"/>
     </row>
     <row r="128">
-      <c r="C128" s="4"/>
+      <c r="A128" s="5"/>
+      <c r="F128" s="6"/>
     </row>
     <row r="129">
-      <c r="C129" s="4"/>
+      <c r="A129" s="5"/>
+      <c r="F129" s="6"/>
     </row>
     <row r="130">
-      <c r="C130" s="4"/>
+      <c r="A130" s="5"/>
+      <c r="F130" s="6"/>
     </row>
     <row r="131">
-      <c r="C131" s="4"/>
+      <c r="A131" s="5"/>
+      <c r="F131" s="6"/>
     </row>
     <row r="132">
-      <c r="C132" s="4"/>
+      <c r="A132" s="5"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133">
-      <c r="C133" s="4"/>
+      <c r="A133" s="5"/>
+      <c r="F133" s="6"/>
     </row>
     <row r="134">
-      <c r="C134" s="4"/>
+      <c r="A134" s="5"/>
+      <c r="F134" s="6"/>
     </row>
     <row r="135">
-      <c r="C135" s="4"/>
+      <c r="A135" s="5"/>
+      <c r="F135" s="6"/>
     </row>
     <row r="136">
-      <c r="C136" s="4"/>
+      <c r="A136" s="5"/>
+      <c r="F136" s="6"/>
     </row>
     <row r="137">
-      <c r="C137" s="4"/>
+      <c r="A137" s="5"/>
+      <c r="F137" s="6"/>
     </row>
     <row r="138">
-      <c r="C138" s="4"/>
+      <c r="A138" s="5"/>
+      <c r="F138" s="6"/>
     </row>
     <row r="139">
-      <c r="C139" s="4"/>
+      <c r="A139" s="5"/>
+      <c r="F139" s="6"/>
     </row>
     <row r="140">
-      <c r="C140" s="4"/>
+      <c r="A140" s="5"/>
+      <c r="F140" s="6"/>
     </row>
     <row r="141">
-      <c r="C141" s="4"/>
+      <c r="A141" s="5"/>
+      <c r="F141" s="6"/>
     </row>
     <row r="142">
-      <c r="C142" s="4"/>
+      <c r="A142" s="5"/>
+      <c r="F142" s="6"/>
     </row>
     <row r="143">
-      <c r="C143" s="4"/>
+      <c r="A143" s="5"/>
+      <c r="F143" s="6"/>
     </row>
     <row r="144">
-      <c r="C144" s="4"/>
+      <c r="A144" s="5"/>
+      <c r="F144" s="6"/>
     </row>
     <row r="145">
-      <c r="C145" s="4"/>
+      <c r="A145" s="5"/>
+      <c r="F145" s="6"/>
     </row>
     <row r="146">
-      <c r="C146" s="4"/>
+      <c r="A146" s="5"/>
+      <c r="F146" s="6"/>
     </row>
     <row r="147">
-      <c r="C147" s="4"/>
+      <c r="A147" s="5"/>
+      <c r="F147" s="6"/>
     </row>
     <row r="148">
-      <c r="C148" s="4"/>
+      <c r="A148" s="5"/>
+      <c r="F148" s="6"/>
     </row>
     <row r="149">
-      <c r="C149" s="4"/>
+      <c r="A149" s="5"/>
+      <c r="F149" s="6"/>
     </row>
     <row r="150">
-      <c r="C150" s="4"/>
+      <c r="A150" s="5"/>
+      <c r="F150" s="6"/>
     </row>
     <row r="151">
-      <c r="C151" s="4"/>
+      <c r="A151" s="5"/>
+      <c r="F151" s="6"/>
     </row>
     <row r="152">
-      <c r="C152" s="4"/>
+      <c r="A152" s="5"/>
+      <c r="F152" s="6"/>
     </row>
     <row r="153">
-      <c r="C153" s="4"/>
+      <c r="A153" s="5"/>
+      <c r="F153" s="6"/>
     </row>
     <row r="154">
-      <c r="C154" s="4"/>
+      <c r="A154" s="5"/>
+      <c r="F154" s="6"/>
     </row>
     <row r="155">
-      <c r="C155" s="4"/>
+      <c r="A155" s="5"/>
+      <c r="F155" s="6"/>
     </row>
     <row r="156">
-      <c r="C156" s="4"/>
+      <c r="A156" s="5"/>
+      <c r="F156" s="6"/>
     </row>
     <row r="157">
-      <c r="C157" s="4"/>
+      <c r="A157" s="5"/>
+      <c r="F157" s="6"/>
     </row>
     <row r="158">
-      <c r="C158" s="4"/>
+      <c r="A158" s="5"/>
+      <c r="F158" s="6"/>
     </row>
     <row r="159">
-      <c r="C159" s="4"/>
+      <c r="A159" s="5"/>
+      <c r="F159" s="6"/>
     </row>
     <row r="160">
-      <c r="C160" s="4"/>
+      <c r="A160" s="5"/>
+      <c r="F160" s="6"/>
     </row>
     <row r="161">
-      <c r="C161" s="4"/>
+      <c r="A161" s="5"/>
+      <c r="F161" s="6"/>
     </row>
     <row r="162">
-      <c r="C162" s="4"/>
+      <c r="A162" s="5"/>
+      <c r="F162" s="6"/>
     </row>
     <row r="163">
-      <c r="C163" s="4"/>
+      <c r="A163" s="5"/>
+      <c r="F163" s="6"/>
     </row>
     <row r="164">
-      <c r="C164" s="4"/>
+      <c r="A164" s="5"/>
+      <c r="F164" s="6"/>
     </row>
     <row r="165">
-      <c r="C165" s="4"/>
+      <c r="A165" s="5"/>
+      <c r="F165" s="6"/>
     </row>
     <row r="166">
-      <c r="C166" s="4"/>
+      <c r="A166" s="5"/>
+      <c r="F166" s="6"/>
     </row>
     <row r="167">
-      <c r="C167" s="4"/>
+      <c r="A167" s="5"/>
+      <c r="F167" s="6"/>
     </row>
     <row r="168">
-      <c r="C168" s="4"/>
+      <c r="A168" s="5"/>
+      <c r="F168" s="6"/>
     </row>
     <row r="169">
-      <c r="C169" s="4"/>
+      <c r="A169" s="5"/>
+      <c r="F169" s="6"/>
     </row>
     <row r="170">
-      <c r="C170" s="4"/>
+      <c r="A170" s="5"/>
+      <c r="F170" s="6"/>
     </row>
     <row r="171">
-      <c r="C171" s="4"/>
+      <c r="A171" s="5"/>
+      <c r="F171" s="6"/>
     </row>
     <row r="172">
-      <c r="C172" s="4"/>
+      <c r="A172" s="5"/>
+      <c r="F172" s="6"/>
     </row>
     <row r="173">
-      <c r="C173" s="4"/>
+      <c r="A173" s="5"/>
+      <c r="F173" s="6"/>
     </row>
     <row r="174">
-      <c r="C174" s="4"/>
+      <c r="A174" s="5"/>
+      <c r="F174" s="6"/>
     </row>
     <row r="175">
-      <c r="C175" s="4"/>
+      <c r="A175" s="5"/>
+      <c r="F175" s="6"/>
     </row>
     <row r="176">
-      <c r="C176" s="4"/>
+      <c r="A176" s="5"/>
+      <c r="F176" s="6"/>
     </row>
     <row r="177">
-      <c r="C177" s="4"/>
+      <c r="A177" s="5"/>
+      <c r="F177" s="6"/>
     </row>
     <row r="178">
-      <c r="C178" s="4"/>
+      <c r="A178" s="5"/>
+      <c r="F178" s="6"/>
     </row>
     <row r="179">
-      <c r="C179" s="4"/>
+      <c r="A179" s="5"/>
+      <c r="F179" s="6"/>
     </row>
     <row r="180">
-      <c r="C180" s="4"/>
+      <c r="A180" s="5"/>
+      <c r="F180" s="6"/>
     </row>
     <row r="181">
-      <c r="C181" s="4"/>
+      <c r="A181" s="5"/>
+      <c r="F181" s="6"/>
     </row>
     <row r="182">
-      <c r="C182" s="4"/>
+      <c r="A182" s="5"/>
+      <c r="F182" s="6"/>
     </row>
     <row r="183">
-      <c r="C183" s="4"/>
+      <c r="A183" s="5"/>
+      <c r="F183" s="6"/>
     </row>
     <row r="184">
-      <c r="C184" s="4"/>
+      <c r="A184" s="5"/>
+      <c r="F184" s="6"/>
     </row>
     <row r="185">
-      <c r="C185" s="4"/>
+      <c r="A185" s="5"/>
+      <c r="F185" s="6"/>
     </row>
     <row r="186">
-      <c r="C186" s="4"/>
+      <c r="A186" s="5"/>
+      <c r="F186" s="6"/>
     </row>
     <row r="187">
-      <c r="C187" s="4"/>
+      <c r="A187" s="5"/>
+      <c r="F187" s="6"/>
     </row>
     <row r="188">
-      <c r="C188" s="4"/>
+      <c r="A188" s="5"/>
+      <c r="F188" s="6"/>
     </row>
     <row r="189">
-      <c r="C189" s="4"/>
+      <c r="A189" s="5"/>
+      <c r="F189" s="6"/>
     </row>
     <row r="190">
-      <c r="C190" s="4"/>
+      <c r="A190" s="5"/>
+      <c r="F190" s="6"/>
     </row>
     <row r="191">
-      <c r="C191" s="4"/>
+      <c r="A191" s="5"/>
+      <c r="F191" s="6"/>
     </row>
     <row r="192">
-      <c r="C192" s="4"/>
+      <c r="A192" s="5"/>
+      <c r="F192" s="6"/>
     </row>
     <row r="193">
-      <c r="C193" s="4"/>
+      <c r="A193" s="5"/>
+      <c r="F193" s="6"/>
     </row>
     <row r="194">
-      <c r="C194" s="4"/>
+      <c r="A194" s="5"/>
+      <c r="F194" s="6"/>
     </row>
     <row r="195">
-      <c r="C195" s="4"/>
+      <c r="A195" s="5"/>
+      <c r="F195" s="6"/>
     </row>
     <row r="196">
-      <c r="C196" s="4"/>
+      <c r="A196" s="5"/>
+      <c r="F196" s="6"/>
     </row>
     <row r="197">
-      <c r="C197" s="4"/>
+      <c r="A197" s="5"/>
+      <c r="F197" s="6"/>
     </row>
     <row r="198">
-      <c r="C198" s="4"/>
+      <c r="A198" s="5"/>
+      <c r="F198" s="6"/>
     </row>
     <row r="199">
-      <c r="C199" s="4"/>
+      <c r="A199" s="5"/>
+      <c r="F199" s="6"/>
     </row>
     <row r="200">
-      <c r="C200" s="4"/>
+      <c r="A200" s="5"/>
+      <c r="F200" s="6"/>
     </row>
     <row r="201">
-      <c r="C201" s="4"/>
+      <c r="A201" s="5"/>
+      <c r="F201" s="6"/>
     </row>
     <row r="202">
-      <c r="C202" s="4"/>
+      <c r="A202" s="5"/>
+      <c r="F202" s="6"/>
     </row>
     <row r="203">
-      <c r="C203" s="4"/>
+      <c r="A203" s="5"/>
+      <c r="F203" s="6"/>
     </row>
     <row r="204">
-      <c r="C204" s="4"/>
+      <c r="A204" s="5"/>
+      <c r="F204" s="6"/>
     </row>
     <row r="205">
-      <c r="C205" s="4"/>
+      <c r="A205" s="5"/>
+      <c r="F205" s="6"/>
     </row>
     <row r="206">
-      <c r="C206" s="4"/>
+      <c r="A206" s="5"/>
+      <c r="F206" s="6"/>
     </row>
     <row r="207">
-      <c r="C207" s="4"/>
+      <c r="A207" s="5"/>
+      <c r="F207" s="6"/>
     </row>
     <row r="208">
-      <c r="C208" s="4"/>
+      <c r="A208" s="5"/>
+      <c r="F208" s="6"/>
     </row>
     <row r="209">
-      <c r="C209" s="4"/>
+      <c r="A209" s="5"/>
+      <c r="F209" s="6"/>
     </row>
     <row r="210">
-      <c r="C210" s="4"/>
+      <c r="A210" s="5"/>
+      <c r="F210" s="6"/>
     </row>
     <row r="211">
-      <c r="C211" s="4"/>
+      <c r="A211" s="5"/>
+      <c r="F211" s="6"/>
     </row>
     <row r="212">
-      <c r="C212" s="4"/>
+      <c r="A212" s="5"/>
+      <c r="F212" s="6"/>
     </row>
     <row r="213">
-      <c r="C213" s="4"/>
+      <c r="A213" s="5"/>
+      <c r="F213" s="6"/>
     </row>
     <row r="214">
-      <c r="C214" s="4"/>
+      <c r="A214" s="5"/>
+      <c r="F214" s="6"/>
     </row>
     <row r="215">
-      <c r="C215" s="4"/>
+      <c r="A215" s="5"/>
+      <c r="F215" s="6"/>
     </row>
     <row r="216">
-      <c r="C216" s="4"/>
+      <c r="A216" s="5"/>
+      <c r="F216" s="6"/>
     </row>
     <row r="217">
-      <c r="C217" s="4"/>
+      <c r="A217" s="5"/>
+      <c r="F217" s="6"/>
     </row>
     <row r="218">
-      <c r="C218" s="4"/>
+      <c r="A218" s="5"/>
+      <c r="F218" s="6"/>
     </row>
     <row r="219">
-      <c r="C219" s="4"/>
+      <c r="A219" s="5"/>
+      <c r="F219" s="6"/>
     </row>
     <row r="220">
-      <c r="C220" s="4"/>
+      <c r="A220" s="5"/>
+      <c r="F220" s="6"/>
     </row>
     <row r="221">
-      <c r="C221" s="4"/>
+      <c r="A221" s="5"/>
+      <c r="F221" s="6"/>
     </row>
     <row r="222">
-      <c r="C222" s="4"/>
+      <c r="A222" s="5"/>
+      <c r="F222" s="6"/>
     </row>
     <row r="223">
-      <c r="C223" s="4"/>
+      <c r="A223" s="5"/>
+      <c r="F223" s="6"/>
     </row>
     <row r="224">
-      <c r="C224" s="4"/>
+      <c r="A224" s="5"/>
+      <c r="F224" s="6"/>
     </row>
     <row r="225">
-      <c r="C225" s="4"/>
+      <c r="A225" s="5"/>
+      <c r="F225" s="6"/>
     </row>
     <row r="226">
-      <c r="C226" s="4"/>
+      <c r="A226" s="5"/>
+      <c r="F226" s="6"/>
     </row>
     <row r="227">
-      <c r="C227" s="4"/>
+      <c r="A227" s="5"/>
+      <c r="F227" s="6"/>
     </row>
     <row r="228">
-      <c r="C228" s="4"/>
+      <c r="A228" s="5"/>
+      <c r="F228" s="6"/>
     </row>
     <row r="229">
-      <c r="C229" s="4"/>
+      <c r="A229" s="5"/>
+      <c r="F229" s="6"/>
     </row>
     <row r="230">
-      <c r="C230" s="4"/>
+      <c r="A230" s="5"/>
+      <c r="F230" s="6"/>
     </row>
     <row r="231">
-      <c r="C231" s="4"/>
+      <c r="A231" s="5"/>
+      <c r="F231" s="6"/>
     </row>
     <row r="232">
-      <c r="C232" s="4"/>
+      <c r="A232" s="5"/>
+      <c r="F232" s="6"/>
     </row>
     <row r="233">
-      <c r="C233" s="4"/>
+      <c r="A233" s="5"/>
+      <c r="F233" s="6"/>
     </row>
     <row r="234">
-      <c r="C234" s="4"/>
+      <c r="A234" s="5"/>
+      <c r="F234" s="6"/>
     </row>
     <row r="235">
-      <c r="C235" s="4"/>
+      <c r="A235" s="5"/>
+      <c r="F235" s="6"/>
     </row>
     <row r="236">
-      <c r="C236" s="4"/>
+      <c r="A236" s="5"/>
+      <c r="F236" s="6"/>
     </row>
     <row r="237">
-      <c r="C237" s="4"/>
+      <c r="A237" s="5"/>
+      <c r="F237" s="6"/>
     </row>
     <row r="238">
-      <c r="C238" s="4"/>
+      <c r="A238" s="5"/>
+      <c r="F238" s="6"/>
     </row>
     <row r="239">
-      <c r="C239" s="4"/>
+      <c r="A239" s="5"/>
+      <c r="F239" s="6"/>
     </row>
     <row r="240">
-      <c r="C240" s="4"/>
+      <c r="A240" s="5"/>
+      <c r="F240" s="6"/>
     </row>
     <row r="241">
-      <c r="C241" s="4"/>
+      <c r="A241" s="5"/>
+      <c r="F241" s="6"/>
     </row>
     <row r="242">
-      <c r="C242" s="4"/>
+      <c r="A242" s="5"/>
+      <c r="F242" s="6"/>
     </row>
     <row r="243">
-      <c r="C243" s="4"/>
+      <c r="A243" s="5"/>
+      <c r="F243" s="6"/>
     </row>
     <row r="244">
-      <c r="C244" s="4"/>
+      <c r="A244" s="5"/>
+      <c r="F244" s="6"/>
     </row>
     <row r="245">
-      <c r="C245" s="4"/>
+      <c r="A245" s="5"/>
+      <c r="F245" s="6"/>
     </row>
     <row r="246">
-      <c r="C246" s="4"/>
+      <c r="A246" s="5"/>
+      <c r="F246" s="6"/>
     </row>
     <row r="247">
-      <c r="C247" s="4"/>
+      <c r="A247" s="5"/>
+      <c r="F247" s="6"/>
     </row>
     <row r="248">
-      <c r="C248" s="4"/>
+      <c r="A248" s="5"/>
+      <c r="F248" s="6"/>
     </row>
     <row r="249">
-      <c r="C249" s="4"/>
+      <c r="A249" s="5"/>
+      <c r="F249" s="6"/>
     </row>
     <row r="250">
-      <c r="C250" s="4"/>
+      <c r="A250" s="5"/>
+      <c r="F250" s="6"/>
     </row>
     <row r="251">
-      <c r="C251" s="4"/>
+      <c r="A251" s="5"/>
+      <c r="F251" s="6"/>
     </row>
     <row r="252">
-      <c r="C252" s="4"/>
+      <c r="A252" s="5"/>
+      <c r="F252" s="6"/>
     </row>
     <row r="253">
-      <c r="C253" s="4"/>
+      <c r="A253" s="5"/>
+      <c r="F253" s="6"/>
     </row>
     <row r="254">
-      <c r="C254" s="4"/>
+      <c r="A254" s="5"/>
+      <c r="F254" s="6"/>
     </row>
     <row r="255">
-      <c r="C255" s="4"/>
+      <c r="A255" s="5"/>
+      <c r="F255" s="6"/>
     </row>
     <row r="256">
-      <c r="C256" s="4"/>
+      <c r="A256" s="5"/>
+      <c r="F256" s="6"/>
     </row>
     <row r="257">
-      <c r="C257" s="4"/>
+      <c r="A257" s="5"/>
+      <c r="F257" s="6"/>
     </row>
     <row r="258">
-      <c r="C258" s="4"/>
+      <c r="A258" s="5"/>
+      <c r="F258" s="6"/>
     </row>
     <row r="259">
-      <c r="C259" s="4"/>
+      <c r="A259" s="5"/>
+      <c r="F259" s="6"/>
     </row>
     <row r="260">
-      <c r="C260" s="4"/>
+      <c r="A260" s="5"/>
+      <c r="F260" s="6"/>
     </row>
     <row r="261">
-      <c r="C261" s="4"/>
+      <c r="A261" s="5"/>
+      <c r="F261" s="6"/>
     </row>
     <row r="262">
-      <c r="C262" s="4"/>
+      <c r="A262" s="5"/>
+      <c r="F262" s="6"/>
     </row>
     <row r="263">
-      <c r="C263" s="4"/>
+      <c r="A263" s="5"/>
+      <c r="F263" s="6"/>
     </row>
     <row r="264">
-      <c r="C264" s="4"/>
+      <c r="A264" s="5"/>
+      <c r="F264" s="6"/>
     </row>
     <row r="265">
-      <c r="C265" s="4"/>
+      <c r="A265" s="5"/>
+      <c r="F265" s="6"/>
     </row>
     <row r="266">
-      <c r="C266" s="4"/>
+      <c r="A266" s="5"/>
+      <c r="F266" s="6"/>
     </row>
     <row r="267">
-      <c r="C267" s="4"/>
+      <c r="A267" s="5"/>
+      <c r="F267" s="6"/>
     </row>
     <row r="268">
-      <c r="C268" s="4"/>
+      <c r="A268" s="5"/>
+      <c r="F268" s="6"/>
     </row>
     <row r="269">
-      <c r="C269" s="4"/>
+      <c r="A269" s="5"/>
+      <c r="F269" s="6"/>
     </row>
     <row r="270">
-      <c r="C270" s="4"/>
+      <c r="A270" s="5"/>
+      <c r="F270" s="6"/>
     </row>
     <row r="271">
-      <c r="C271" s="4"/>
+      <c r="A271" s="5"/>
+      <c r="F271" s="6"/>
     </row>
     <row r="272">
-      <c r="C272" s="4"/>
+      <c r="A272" s="5"/>
+      <c r="F272" s="6"/>
     </row>
     <row r="273">
-      <c r="C273" s="4"/>
+      <c r="A273" s="5"/>
+      <c r="F273" s="6"/>
     </row>
     <row r="274">
-      <c r="C274" s="4"/>
+      <c r="A274" s="5"/>
+      <c r="F274" s="6"/>
     </row>
     <row r="275">
-      <c r="C275" s="4"/>
+      <c r="A275" s="5"/>
+      <c r="F275" s="6"/>
     </row>
     <row r="276">
-      <c r="C276" s="4"/>
+      <c r="A276" s="5"/>
+      <c r="F276" s="6"/>
     </row>
     <row r="277">
-      <c r="C277" s="4"/>
+      <c r="A277" s="5"/>
+      <c r="F277" s="6"/>
     </row>
     <row r="278">
-      <c r="C278" s="4"/>
+      <c r="A278" s="5"/>
+      <c r="F278" s="6"/>
     </row>
     <row r="279">
-      <c r="C279" s="4"/>
+      <c r="A279" s="5"/>
+      <c r="F279" s="6"/>
     </row>
     <row r="280">
-      <c r="C280" s="4"/>
+      <c r="A280" s="5"/>
+      <c r="F280" s="6"/>
     </row>
     <row r="281">
-      <c r="C281" s="4"/>
+      <c r="A281" s="5"/>
+      <c r="F281" s="6"/>
     </row>
     <row r="282">
-      <c r="C282" s="4"/>
+      <c r="A282" s="5"/>
+      <c r="F282" s="6"/>
     </row>
     <row r="283">
-      <c r="C283" s="4"/>
+      <c r="A283" s="5"/>
+      <c r="F283" s="6"/>
     </row>
     <row r="284">
-      <c r="C284" s="4"/>
+      <c r="A284" s="5"/>
+      <c r="F284" s="6"/>
     </row>
     <row r="285">
-      <c r="C285" s="4"/>
+      <c r="A285" s="5"/>
+      <c r="F285" s="6"/>
     </row>
     <row r="286">
-      <c r="C286" s="4"/>
+      <c r="A286" s="5"/>
+      <c r="F286" s="6"/>
     </row>
     <row r="287">
-      <c r="C287" s="4"/>
+      <c r="A287" s="5"/>
+      <c r="F287" s="6"/>
     </row>
     <row r="288">
-      <c r="C288" s="4"/>
+      <c r="A288" s="5"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289">
-      <c r="C289" s="4"/>
+      <c r="A289" s="5"/>
+      <c r="F289" s="6"/>
     </row>
     <row r="290">
-      <c r="C290" s="4"/>
+      <c r="A290" s="5"/>
+      <c r="F290" s="6"/>
     </row>
     <row r="291">
-      <c r="C291" s="4"/>
+      <c r="A291" s="5"/>
+      <c r="F291" s="6"/>
     </row>
     <row r="292">
-      <c r="C292" s="4"/>
+      <c r="A292" s="5"/>
+      <c r="F292" s="6"/>
     </row>
     <row r="293">
-      <c r="C293" s="4"/>
+      <c r="A293" s="5"/>
+      <c r="F293" s="6"/>
     </row>
     <row r="294">
-      <c r="C294" s="4"/>
+      <c r="A294" s="5"/>
+      <c r="F294" s="6"/>
     </row>
     <row r="295">
-      <c r="C295" s="4"/>
+      <c r="A295" s="5"/>
+      <c r="F295" s="6"/>
     </row>
     <row r="296">
-      <c r="C296" s="4"/>
+      <c r="A296" s="5"/>
+      <c r="F296" s="6"/>
     </row>
     <row r="297">
-      <c r="C297" s="4"/>
+      <c r="A297" s="5"/>
+      <c r="F297" s="6"/>
     </row>
     <row r="298">
-      <c r="C298" s="4"/>
+      <c r="A298" s="5"/>
+      <c r="F298" s="6"/>
     </row>
     <row r="299">
-      <c r="C299" s="4"/>
+      <c r="A299" s="5"/>
+      <c r="F299" s="6"/>
     </row>
     <row r="300">
-      <c r="C300" s="4"/>
+      <c r="A300" s="5"/>
+      <c r="F300" s="6"/>
     </row>
     <row r="301">
-      <c r="C301" s="4"/>
+      <c r="A301" s="5"/>
+      <c r="F301" s="6"/>
     </row>
     <row r="302">
-      <c r="C302" s="4"/>
+      <c r="A302" s="5"/>
+      <c r="F302" s="6"/>
     </row>
     <row r="303">
-      <c r="C303" s="4"/>
+      <c r="A303" s="5"/>
+      <c r="F303" s="6"/>
     </row>
     <row r="304">
-      <c r="C304" s="4"/>
+      <c r="A304" s="5"/>
+      <c r="F304" s="6"/>
     </row>
     <row r="305">
-      <c r="C305" s="4"/>
+      <c r="A305" s="5"/>
+      <c r="F305" s="6"/>
     </row>
     <row r="306">
-      <c r="C306" s="4"/>
+      <c r="A306" s="5"/>
+      <c r="F306" s="6"/>
     </row>
     <row r="307">
-      <c r="C307" s="4"/>
+      <c r="A307" s="5"/>
+      <c r="F307" s="6"/>
     </row>
     <row r="308">
-      <c r="C308" s="4"/>
+      <c r="A308" s="5"/>
+      <c r="F308" s="6"/>
     </row>
     <row r="309">
-      <c r="C309" s="4"/>
+      <c r="A309" s="5"/>
+      <c r="F309" s="6"/>
     </row>
     <row r="310">
-      <c r="C310" s="4"/>
+      <c r="A310" s="5"/>
+      <c r="F310" s="6"/>
     </row>
     <row r="311">
-      <c r="C311" s="4"/>
+      <c r="A311" s="5"/>
+      <c r="F311" s="6"/>
     </row>
     <row r="312">
-      <c r="C312" s="4"/>
+      <c r="A312" s="5"/>
+      <c r="F312" s="6"/>
     </row>
     <row r="313">
-      <c r="C313" s="4"/>
+      <c r="A313" s="5"/>
+      <c r="F313" s="6"/>
     </row>
     <row r="314">
-      <c r="C314" s="4"/>
+      <c r="A314" s="5"/>
+      <c r="F314" s="6"/>
     </row>
     <row r="315">
-      <c r="C315" s="4"/>
+      <c r="A315" s="5"/>
+      <c r="F315" s="6"/>
     </row>
     <row r="316">
-      <c r="C316" s="4"/>
+      <c r="A316" s="5"/>
+      <c r="F316" s="6"/>
     </row>
     <row r="317">
-      <c r="C317" s="4"/>
+      <c r="A317" s="5"/>
+      <c r="F317" s="6"/>
     </row>
     <row r="318">
-      <c r="C318" s="4"/>
+      <c r="A318" s="5"/>
+      <c r="F318" s="6"/>
     </row>
     <row r="319">
-      <c r="C319" s="4"/>
+      <c r="A319" s="5"/>
+      <c r="F319" s="6"/>
     </row>
     <row r="320">
-      <c r="C320" s="4"/>
+      <c r="A320" s="5"/>
+      <c r="F320" s="6"/>
     </row>
     <row r="321">
-      <c r="C321" s="4"/>
+      <c r="A321" s="5"/>
+      <c r="F321" s="6"/>
     </row>
     <row r="322">
-      <c r="C322" s="4"/>
+      <c r="A322" s="5"/>
+      <c r="F322" s="6"/>
     </row>
     <row r="323">
-      <c r="C323" s="4"/>
+      <c r="A323" s="5"/>
+      <c r="F323" s="6"/>
     </row>
     <row r="324">
-      <c r="C324" s="4"/>
+      <c r="A324" s="5"/>
+      <c r="F324" s="6"/>
     </row>
     <row r="325">
-      <c r="C325" s="4"/>
+      <c r="A325" s="5"/>
+      <c r="F325" s="6"/>
     </row>
     <row r="326">
-      <c r="C326" s="4"/>
+      <c r="A326" s="5"/>
+      <c r="F326" s="6"/>
     </row>
     <row r="327">
-      <c r="C327" s="4"/>
+      <c r="A327" s="5"/>
+      <c r="F327" s="6"/>
     </row>
     <row r="328">
-      <c r="C328" s="4"/>
+      <c r="A328" s="5"/>
+      <c r="F328" s="6"/>
     </row>
     <row r="329">
-      <c r="C329" s="4"/>
+      <c r="A329" s="5"/>
+      <c r="F329" s="6"/>
     </row>
     <row r="330">
-      <c r="C330" s="4"/>
+      <c r="A330" s="5"/>
+      <c r="F330" s="6"/>
     </row>
     <row r="331">
-      <c r="C331" s="4"/>
+      <c r="A331" s="5"/>
+      <c r="F331" s="6"/>
     </row>
     <row r="332">
-      <c r="C332" s="4"/>
+      <c r="A332" s="5"/>
+      <c r="F332" s="6"/>
     </row>
     <row r="333">
-      <c r="C333" s="4"/>
+      <c r="A333" s="5"/>
+      <c r="F333" s="6"/>
     </row>
     <row r="334">
-      <c r="C334" s="4"/>
+      <c r="A334" s="5"/>
+      <c r="F334" s="6"/>
     </row>
     <row r="335">
-      <c r="C335" s="4"/>
+      <c r="A335" s="5"/>
+      <c r="F335" s="6"/>
     </row>
     <row r="336">
-      <c r="C336" s="4"/>
+      <c r="A336" s="5"/>
+      <c r="F336" s="6"/>
     </row>
     <row r="337">
-      <c r="C337" s="4"/>
+      <c r="A337" s="5"/>
+      <c r="F337" s="6"/>
     </row>
     <row r="338">
-      <c r="C338" s="4"/>
+      <c r="A338" s="5"/>
+      <c r="F338" s="6"/>
     </row>
     <row r="339">
-      <c r="C339" s="4"/>
+      <c r="A339" s="5"/>
+      <c r="F339" s="6"/>
     </row>
     <row r="340">
-      <c r="C340" s="4"/>
+      <c r="A340" s="5"/>
+      <c r="F340" s="6"/>
     </row>
     <row r="341">
-      <c r="C341" s="4"/>
+      <c r="A341" s="5"/>
+      <c r="F341" s="6"/>
     </row>
     <row r="342">
-      <c r="C342" s="4"/>
+      <c r="A342" s="5"/>
+      <c r="F342" s="6"/>
     </row>
     <row r="343">
-      <c r="C343" s="4"/>
+      <c r="A343" s="5"/>
+      <c r="F343" s="6"/>
     </row>
     <row r="344">
-      <c r="C344" s="4"/>
+      <c r="A344" s="5"/>
+      <c r="F344" s="6"/>
     </row>
     <row r="345">
-      <c r="C345" s="4"/>
+      <c r="A345" s="5"/>
+      <c r="F345" s="6"/>
     </row>
     <row r="346">
-      <c r="C346" s="4"/>
+      <c r="A346" s="5"/>
+      <c r="F346" s="6"/>
     </row>
     <row r="347">
-      <c r="C347" s="4"/>
+      <c r="A347" s="5"/>
+      <c r="F347" s="6"/>
     </row>
     <row r="348">
-      <c r="C348" s="4"/>
+      <c r="A348" s="5"/>
+      <c r="F348" s="6"/>
     </row>
     <row r="349">
-      <c r="C349" s="4"/>
+      <c r="A349" s="5"/>
+      <c r="F349" s="6"/>
     </row>
     <row r="350">
-      <c r="C350" s="4"/>
+      <c r="A350" s="5"/>
+      <c r="F350" s="6"/>
     </row>
     <row r="351">
-      <c r="C351" s="4"/>
+      <c r="A351" s="5"/>
+      <c r="F351" s="6"/>
     </row>
     <row r="352">
-      <c r="C352" s="4"/>
+      <c r="A352" s="5"/>
+      <c r="F352" s="6"/>
     </row>
     <row r="353">
-      <c r="C353" s="4"/>
+      <c r="A353" s="5"/>
+      <c r="F353" s="6"/>
     </row>
     <row r="354">
-      <c r="C354" s="4"/>
+      <c r="A354" s="5"/>
+      <c r="F354" s="6"/>
     </row>
     <row r="355">
-      <c r="C355" s="4"/>
+      <c r="A355" s="5"/>
+      <c r="F355" s="6"/>
     </row>
     <row r="356">
-      <c r="C356" s="4"/>
+      <c r="A356" s="5"/>
+      <c r="F356" s="6"/>
     </row>
     <row r="357">
-      <c r="C357" s="4"/>
+      <c r="A357" s="5"/>
+      <c r="F357" s="6"/>
     </row>
     <row r="358">
-      <c r="C358" s="4"/>
+      <c r="A358" s="5"/>
+      <c r="F358" s="6"/>
     </row>
     <row r="359">
-      <c r="C359" s="4"/>
+      <c r="A359" s="5"/>
+      <c r="F359" s="6"/>
     </row>
     <row r="360">
-      <c r="C360" s="4"/>
+      <c r="A360" s="5"/>
+      <c r="F360" s="6"/>
     </row>
     <row r="361">
-      <c r="C361" s="4"/>
+      <c r="A361" s="5"/>
+      <c r="F361" s="6"/>
     </row>
     <row r="362">
-      <c r="C362" s="4"/>
+      <c r="A362" s="5"/>
+      <c r="F362" s="6"/>
     </row>
     <row r="363">
-      <c r="C363" s="4"/>
+      <c r="A363" s="5"/>
+      <c r="F363" s="6"/>
     </row>
     <row r="364">
-      <c r="C364" s="4"/>
+      <c r="A364" s="5"/>
+      <c r="F364" s="6"/>
     </row>
     <row r="365">
-      <c r="C365" s="4"/>
+      <c r="A365" s="5"/>
+      <c r="F365" s="6"/>
     </row>
     <row r="366">
-      <c r="C366" s="4"/>
+      <c r="A366" s="5"/>
+      <c r="F366" s="6"/>
     </row>
     <row r="367">
-      <c r="C367" s="4"/>
+      <c r="A367" s="5"/>
+      <c r="F367" s="6"/>
     </row>
     <row r="368">
-      <c r="C368" s="4"/>
+      <c r="A368" s="5"/>
+      <c r="F368" s="6"/>
     </row>
     <row r="369">
-      <c r="C369" s="4"/>
+      <c r="A369" s="5"/>
+      <c r="F369" s="6"/>
     </row>
     <row r="370">
-      <c r="C370" s="4"/>
+      <c r="A370" s="5"/>
+      <c r="F370" s="6"/>
     </row>
     <row r="371">
-      <c r="C371" s="4"/>
+      <c r="A371" s="5"/>
+      <c r="F371" s="6"/>
     </row>
     <row r="372">
-      <c r="C372" s="4"/>
+      <c r="A372" s="5"/>
+      <c r="F372" s="6"/>
     </row>
     <row r="373">
-      <c r="C373" s="4"/>
+      <c r="A373" s="5"/>
+      <c r="F373" s="6"/>
     </row>
     <row r="374">
-      <c r="C374" s="4"/>
+      <c r="A374" s="5"/>
+      <c r="F374" s="6"/>
     </row>
     <row r="375">
-      <c r="C375" s="4"/>
+      <c r="A375" s="5"/>
+      <c r="F375" s="6"/>
     </row>
     <row r="376">
-      <c r="C376" s="4"/>
+      <c r="A376" s="5"/>
+      <c r="F376" s="6"/>
     </row>
     <row r="377">
-      <c r="C377" s="4"/>
+      <c r="A377" s="5"/>
+      <c r="F377" s="6"/>
     </row>
     <row r="378">
-      <c r="C378" s="4"/>
+      <c r="A378" s="5"/>
+      <c r="F378" s="6"/>
     </row>
     <row r="379">
-      <c r="C379" s="4"/>
+      <c r="A379" s="5"/>
+      <c r="F379" s="6"/>
     </row>
     <row r="380">
-      <c r="C380" s="4"/>
+      <c r="A380" s="5"/>
+      <c r="F380" s="6"/>
     </row>
     <row r="381">
-      <c r="C381" s="4"/>
+      <c r="A381" s="5"/>
+      <c r="F381" s="6"/>
     </row>
     <row r="382">
-      <c r="C382" s="4"/>
+      <c r="A382" s="5"/>
+      <c r="F382" s="6"/>
     </row>
     <row r="383">
-      <c r="C383" s="4"/>
+      <c r="A383" s="5"/>
+      <c r="F383" s="6"/>
     </row>
     <row r="384">
-      <c r="C384" s="4"/>
+      <c r="A384" s="5"/>
+      <c r="F384" s="6"/>
     </row>
     <row r="385">
-      <c r="C385" s="4"/>
+      <c r="A385" s="5"/>
+      <c r="F385" s="6"/>
     </row>
     <row r="386">
-      <c r="C386" s="4"/>
+      <c r="A386" s="5"/>
+      <c r="F386" s="6"/>
     </row>
     <row r="387">
-      <c r="C387" s="4"/>
+      <c r="A387" s="5"/>
+      <c r="F387" s="6"/>
     </row>
     <row r="388">
-      <c r="C388" s="4"/>
+      <c r="A388" s="5"/>
+      <c r="F388" s="6"/>
     </row>
     <row r="389">
-      <c r="C389" s="4"/>
+      <c r="A389" s="5"/>
+      <c r="F389" s="6"/>
     </row>
     <row r="390">
-      <c r="C390" s="4"/>
+      <c r="A390" s="5"/>
+      <c r="F390" s="6"/>
     </row>
     <row r="391">
-      <c r="C391" s="4"/>
+      <c r="A391" s="5"/>
+      <c r="F391" s="6"/>
     </row>
     <row r="392">
-      <c r="C392" s="4"/>
+      <c r="A392" s="5"/>
+      <c r="F392" s="6"/>
     </row>
     <row r="393">
-      <c r="C393" s="4"/>
+      <c r="A393" s="5"/>
+      <c r="F393" s="6"/>
     </row>
     <row r="394">
-      <c r="C394" s="4"/>
+      <c r="A394" s="5"/>
+      <c r="F394" s="6"/>
     </row>
     <row r="395">
-      <c r="C395" s="4"/>
+      <c r="A395" s="5"/>
+      <c r="F395" s="6"/>
     </row>
     <row r="396">
-      <c r="C396" s="4"/>
+      <c r="A396" s="5"/>
+      <c r="F396" s="6"/>
     </row>
     <row r="397">
-      <c r="C397" s="4"/>
+      <c r="A397" s="5"/>
+      <c r="F397" s="6"/>
     </row>
     <row r="398">
-      <c r="C398" s="4"/>
+      <c r="A398" s="5"/>
+      <c r="F398" s="6"/>
     </row>
     <row r="399">
-      <c r="C399" s="4"/>
+      <c r="A399" s="5"/>
+      <c r="F399" s="6"/>
     </row>
     <row r="400">
-      <c r="C400" s="4"/>
+      <c r="A400" s="5"/>
+      <c r="F400" s="6"/>
     </row>
     <row r="401">
-      <c r="C401" s="4"/>
+      <c r="A401" s="5"/>
+      <c r="F401" s="6"/>
     </row>
     <row r="402">
-      <c r="C402" s="4"/>
+      <c r="A402" s="5"/>
+      <c r="F402" s="6"/>
     </row>
     <row r="403">
-      <c r="C403" s="4"/>
+      <c r="A403" s="5"/>
+      <c r="F403" s="6"/>
     </row>
     <row r="404">
-      <c r="C404" s="4"/>
+      <c r="A404" s="5"/>
+      <c r="F404" s="6"/>
     </row>
     <row r="405">
-      <c r="C405" s="4"/>
+      <c r="A405" s="5"/>
+      <c r="F405" s="6"/>
     </row>
     <row r="406">
-      <c r="C406" s="4"/>
+      <c r="A406" s="5"/>
+      <c r="F406" s="6"/>
     </row>
     <row r="407">
-      <c r="C407" s="4"/>
+      <c r="A407" s="5"/>
+      <c r="F407" s="6"/>
     </row>
     <row r="408">
-      <c r="C408" s="4"/>
+      <c r="A408" s="5"/>
+      <c r="F408" s="6"/>
     </row>
     <row r="409">
-      <c r="C409" s="4"/>
+      <c r="A409" s="5"/>
+      <c r="F409" s="6"/>
     </row>
     <row r="410">
-      <c r="C410" s="4"/>
+      <c r="A410" s="5"/>
+      <c r="F410" s="6"/>
     </row>
     <row r="411">
-      <c r="C411" s="4"/>
+      <c r="A411" s="5"/>
+      <c r="F411" s="6"/>
     </row>
     <row r="412">
-      <c r="C412" s="4"/>
+      <c r="A412" s="5"/>
+      <c r="F412" s="6"/>
     </row>
     <row r="413">
-      <c r="C413" s="4"/>
+      <c r="A413" s="5"/>
+      <c r="F413" s="6"/>
     </row>
     <row r="414">
-      <c r="C414" s="4"/>
+      <c r="A414" s="5"/>
+      <c r="F414" s="6"/>
     </row>
     <row r="415">
-      <c r="C415" s="4"/>
+      <c r="A415" s="5"/>
+      <c r="F415" s="6"/>
     </row>
     <row r="416">
-      <c r="C416" s="4"/>
+      <c r="A416" s="5"/>
+      <c r="F416" s="6"/>
     </row>
     <row r="417">
-      <c r="C417" s="4"/>
+      <c r="A417" s="5"/>
+      <c r="F417" s="6"/>
     </row>
     <row r="418">
-      <c r="C418" s="4"/>
+      <c r="A418" s="5"/>
+      <c r="F418" s="6"/>
     </row>
     <row r="419">
-      <c r="C419" s="4"/>
+      <c r="A419" s="5"/>
+      <c r="F419" s="6"/>
     </row>
     <row r="420">
-      <c r="C420" s="4"/>
+      <c r="A420" s="5"/>
+      <c r="F420" s="6"/>
     </row>
     <row r="421">
-      <c r="C421" s="4"/>
+      <c r="A421" s="5"/>
+      <c r="F421" s="6"/>
     </row>
     <row r="422">
-      <c r="C422" s="4"/>
+      <c r="A422" s="5"/>
+      <c r="F422" s="6"/>
     </row>
     <row r="423">
-      <c r="C423" s="4"/>
+      <c r="A423" s="5"/>
+      <c r="F423" s="6"/>
     </row>
     <row r="424">
-      <c r="C424" s="4"/>
+      <c r="A424" s="5"/>
+      <c r="F424" s="6"/>
     </row>
     <row r="425">
-      <c r="C425" s="4"/>
+      <c r="A425" s="5"/>
+      <c r="F425" s="6"/>
     </row>
     <row r="426">
-      <c r="C426" s="4"/>
+      <c r="A426" s="5"/>
+      <c r="F426" s="6"/>
     </row>
     <row r="427">
-      <c r="C427" s="4"/>
+      <c r="A427" s="5"/>
+      <c r="F427" s="6"/>
     </row>
     <row r="428">
-      <c r="C428" s="4"/>
+      <c r="A428" s="5"/>
+      <c r="F428" s="6"/>
     </row>
     <row r="429">
-      <c r="C429" s="4"/>
+      <c r="A429" s="5"/>
+      <c r="F429" s="6"/>
     </row>
     <row r="430">
-      <c r="C430" s="4"/>
+      <c r="A430" s="5"/>
+      <c r="F430" s="6"/>
     </row>
     <row r="431">
-      <c r="C431" s="4"/>
+      <c r="A431" s="5"/>
+      <c r="F431" s="6"/>
     </row>
     <row r="432">
-      <c r="C432" s="4"/>
+      <c r="A432" s="5"/>
+      <c r="F432" s="6"/>
     </row>
     <row r="433">
-      <c r="C433" s="4"/>
+      <c r="A433" s="5"/>
+      <c r="F433" s="6"/>
     </row>
     <row r="434">
-      <c r="C434" s="4"/>
+      <c r="A434" s="5"/>
+      <c r="F434" s="6"/>
     </row>
     <row r="435">
-      <c r="C435" s="4"/>
+      <c r="A435" s="5"/>
+      <c r="F435" s="6"/>
     </row>
     <row r="436">
-      <c r="C436" s="4"/>
+      <c r="A436" s="5"/>
+      <c r="F436" s="6"/>
     </row>
     <row r="437">
-      <c r="C437" s="4"/>
+      <c r="A437" s="5"/>
+      <c r="F437" s="6"/>
     </row>
     <row r="438">
-      <c r="C438" s="4"/>
+      <c r="A438" s="5"/>
+      <c r="F438" s="6"/>
     </row>
     <row r="439">
-      <c r="C439" s="4"/>
+      <c r="A439" s="5"/>
+      <c r="F439" s="6"/>
     </row>
     <row r="440">
-      <c r="C440" s="4"/>
+      <c r="A440" s="5"/>
+      <c r="F440" s="6"/>
     </row>
     <row r="441">
-      <c r="C441" s="4"/>
+      <c r="A441" s="5"/>
+      <c r="F441" s="6"/>
     </row>
     <row r="442">
-      <c r="C442" s="4"/>
+      <c r="A442" s="5"/>
+      <c r="F442" s="6"/>
     </row>
     <row r="443">
-      <c r="C443" s="4"/>
+      <c r="A443" s="5"/>
+      <c r="F443" s="6"/>
     </row>
     <row r="444">
-      <c r="C444" s="4"/>
+      <c r="A444" s="5"/>
+      <c r="F444" s="6"/>
     </row>
     <row r="445">
-      <c r="C445" s="4"/>
+      <c r="A445" s="5"/>
+      <c r="F445" s="6"/>
     </row>
     <row r="446">
-      <c r="C446" s="4"/>
+      <c r="A446" s="5"/>
+      <c r="F446" s="6"/>
     </row>
     <row r="447">
-      <c r="C447" s="4"/>
+      <c r="A447" s="5"/>
+      <c r="F447" s="6"/>
     </row>
     <row r="448">
-      <c r="C448" s="4"/>
+      <c r="A448" s="5"/>
+      <c r="F448" s="6"/>
     </row>
     <row r="449">
-      <c r="C449" s="4"/>
+      <c r="A449" s="5"/>
+      <c r="F449" s="6"/>
     </row>
     <row r="450">
-      <c r="C450" s="4"/>
+      <c r="A450" s="5"/>
+      <c r="F450" s="6"/>
     </row>
     <row r="451">
-      <c r="C451" s="4"/>
+      <c r="A451" s="5"/>
+      <c r="F451" s="6"/>
     </row>
     <row r="452">
-      <c r="C452" s="4"/>
+      <c r="A452" s="5"/>
+      <c r="F452" s="6"/>
     </row>
     <row r="453">
-      <c r="C453" s="4"/>
+      <c r="A453" s="5"/>
+      <c r="F453" s="6"/>
     </row>
     <row r="454">
-      <c r="C454" s="4"/>
+      <c r="A454" s="5"/>
+      <c r="F454" s="6"/>
     </row>
     <row r="455">
-      <c r="C455" s="4"/>
+      <c r="A455" s="5"/>
+      <c r="F455" s="6"/>
     </row>
     <row r="456">
-      <c r="C456" s="4"/>
+      <c r="A456" s="5"/>
+      <c r="F456" s="6"/>
     </row>
     <row r="457">
-      <c r="C457" s="4"/>
+      <c r="A457" s="5"/>
+      <c r="F457" s="6"/>
     </row>
     <row r="458">
-      <c r="C458" s="4"/>
+      <c r="A458" s="5"/>
+      <c r="F458" s="6"/>
     </row>
     <row r="459">
-      <c r="C459" s="4"/>
+      <c r="A459" s="5"/>
+      <c r="F459" s="6"/>
     </row>
     <row r="460">
-      <c r="C460" s="4"/>
+      <c r="A460" s="5"/>
+      <c r="F460" s="6"/>
     </row>
     <row r="461">
-      <c r="C461" s="4"/>
+      <c r="A461" s="5"/>
+      <c r="F461" s="6"/>
     </row>
     <row r="462">
-      <c r="C462" s="4"/>
+      <c r="A462" s="5"/>
+      <c r="F462" s="6"/>
     </row>
     <row r="463">
-      <c r="C463" s="4"/>
+      <c r="A463" s="5"/>
+      <c r="F463" s="6"/>
     </row>
     <row r="464">
-      <c r="C464" s="4"/>
+      <c r="A464" s="5"/>
+      <c r="F464" s="6"/>
     </row>
     <row r="465">
-      <c r="C465" s="4"/>
+      <c r="A465" s="5"/>
+      <c r="F465" s="6"/>
     </row>
     <row r="466">
-      <c r="C466" s="4"/>
+      <c r="A466" s="5"/>
+      <c r="F466" s="6"/>
     </row>
     <row r="467">
-      <c r="C467" s="4"/>
+      <c r="A467" s="5"/>
+      <c r="F467" s="6"/>
     </row>
     <row r="468">
-      <c r="C468" s="4"/>
+      <c r="A468" s="5"/>
+      <c r="F468" s="6"/>
     </row>
     <row r="469">
-      <c r="C469" s="4"/>
+      <c r="A469" s="5"/>
+      <c r="F469" s="6"/>
     </row>
     <row r="470">
-      <c r="C470" s="4"/>
+      <c r="A470" s="5"/>
+      <c r="F470" s="6"/>
     </row>
     <row r="471">
-      <c r="C471" s="4"/>
+      <c r="A471" s="5"/>
+      <c r="F471" s="6"/>
     </row>
     <row r="472">
-      <c r="C472" s="4"/>
+      <c r="A472" s="5"/>
+      <c r="F472" s="6"/>
     </row>
     <row r="473">
-      <c r="C473" s="4"/>
+      <c r="A473" s="5"/>
+      <c r="F473" s="6"/>
     </row>
     <row r="474">
-      <c r="C474" s="4"/>
+      <c r="A474" s="5"/>
+      <c r="F474" s="6"/>
     </row>
     <row r="475">
-      <c r="C475" s="4"/>
+      <c r="A475" s="5"/>
+      <c r="F475" s="6"/>
     </row>
     <row r="476">
-      <c r="C476" s="4"/>
+      <c r="A476" s="5"/>
+      <c r="F476" s="6"/>
     </row>
     <row r="477">
-      <c r="C477" s="4"/>
+      <c r="A477" s="5"/>
+      <c r="F477" s="6"/>
     </row>
     <row r="478">
-      <c r="C478" s="4"/>
+      <c r="A478" s="5"/>
+      <c r="F478" s="6"/>
     </row>
     <row r="479">
-      <c r="C479" s="4"/>
+      <c r="A479" s="5"/>
+      <c r="F479" s="6"/>
     </row>
     <row r="480">
-      <c r="C480" s="4"/>
+      <c r="A480" s="5"/>
+      <c r="F480" s="6"/>
     </row>
     <row r="481">
-      <c r="C481" s="4"/>
+      <c r="A481" s="5"/>
+      <c r="F481" s="6"/>
     </row>
     <row r="482">
-      <c r="C482" s="4"/>
+      <c r="A482" s="5"/>
+      <c r="F482" s="6"/>
     </row>
     <row r="483">
-      <c r="C483" s="4"/>
+      <c r="A483" s="5"/>
+      <c r="F483" s="6"/>
     </row>
     <row r="484">
-      <c r="C484" s="4"/>
+      <c r="A484" s="5"/>
+      <c r="F484" s="6"/>
     </row>
     <row r="485">
-      <c r="C485" s="4"/>
+      <c r="A485" s="5"/>
+      <c r="F485" s="6"/>
     </row>
     <row r="486">
-      <c r="C486" s="4"/>
+      <c r="A486" s="5"/>
+      <c r="F486" s="6"/>
     </row>
     <row r="487">
-      <c r="C487" s="4"/>
+      <c r="A487" s="5"/>
+      <c r="F487" s="6"/>
     </row>
     <row r="488">
-      <c r="C488" s="4"/>
+      <c r="A488" s="5"/>
+      <c r="F488" s="6"/>
     </row>
     <row r="489">
-      <c r="C489" s="4"/>
+      <c r="A489" s="5"/>
+      <c r="F489" s="6"/>
     </row>
     <row r="490">
-      <c r="C490" s="4"/>
+      <c r="A490" s="5"/>
+      <c r="F490" s="6"/>
     </row>
     <row r="491">
-      <c r="C491" s="4"/>
+      <c r="A491" s="5"/>
+      <c r="F491" s="6"/>
     </row>
     <row r="492">
-      <c r="C492" s="4"/>
+      <c r="A492" s="5"/>
+      <c r="F492" s="6"/>
     </row>
     <row r="493">
-      <c r="C493" s="4"/>
+      <c r="A493" s="5"/>
+      <c r="F493" s="6"/>
     </row>
     <row r="494">
-      <c r="C494" s="4"/>
+      <c r="A494" s="5"/>
+      <c r="F494" s="6"/>
     </row>
     <row r="495">
-      <c r="C495" s="4"/>
+      <c r="A495" s="5"/>
+      <c r="F495" s="6"/>
     </row>
     <row r="496">
-      <c r="C496" s="4"/>
+      <c r="A496" s="5"/>
+      <c r="F496" s="6"/>
     </row>
     <row r="497">
-      <c r="C497" s="4"/>
+      <c r="A497" s="5"/>
+      <c r="F497" s="6"/>
     </row>
     <row r="498">
-      <c r="C498" s="4"/>
+      <c r="A498" s="5"/>
+      <c r="F498" s="6"/>
     </row>
     <row r="499">
-      <c r="C499" s="4"/>
+      <c r="A499" s="5"/>
+      <c r="F499" s="6"/>
     </row>
     <row r="500">
-      <c r="C500" s="4"/>
+      <c r="A500" s="5"/>
+      <c r="F500" s="6"/>
     </row>
     <row r="501">
-      <c r="C501" s="4"/>
+      <c r="A501" s="5"/>
+      <c r="F501" s="6"/>
     </row>
     <row r="502">
-      <c r="C502" s="4"/>
+      <c r="A502" s="5"/>
+      <c r="F502" s="6"/>
     </row>
     <row r="503">
-      <c r="C503" s="4"/>
+      <c r="A503" s="5"/>
+      <c r="F503" s="6"/>
     </row>
     <row r="504">
-      <c r="C504" s="4"/>
+      <c r="A504" s="5"/>
+      <c r="F504" s="6"/>
     </row>
     <row r="505">
-      <c r="C505" s="4"/>
+      <c r="A505" s="5"/>
+      <c r="F505" s="6"/>
     </row>
     <row r="506">
-      <c r="C506" s="4"/>
+      <c r="A506" s="5"/>
+      <c r="F506" s="6"/>
     </row>
     <row r="507">
-      <c r="C507" s="4"/>
+      <c r="A507" s="5"/>
+      <c r="F507" s="6"/>
     </row>
     <row r="508">
-      <c r="C508" s="4"/>
+      <c r="A508" s="5"/>
+      <c r="F508" s="6"/>
     </row>
     <row r="509">
-      <c r="C509" s="4"/>
+      <c r="A509" s="5"/>
+      <c r="F509" s="6"/>
     </row>
     <row r="510">
-      <c r="C510" s="4"/>
+      <c r="A510" s="5"/>
+      <c r="F510" s="6"/>
     </row>
     <row r="511">
-      <c r="C511" s="4"/>
+      <c r="A511" s="5"/>
+      <c r="F511" s="6"/>
     </row>
     <row r="512">
-      <c r="C512" s="4"/>
+      <c r="A512" s="5"/>
+      <c r="F512" s="6"/>
     </row>
     <row r="513">
-      <c r="C513" s="4"/>
+      <c r="A513" s="5"/>
+      <c r="F513" s="6"/>
     </row>
     <row r="514">
-      <c r="C514" s="4"/>
+      <c r="A514" s="5"/>
+      <c r="F514" s="6"/>
     </row>
     <row r="515">
-      <c r="C515" s="4"/>
+      <c r="A515" s="5"/>
+      <c r="F515" s="6"/>
     </row>
     <row r="516">
-      <c r="C516" s="4"/>
+      <c r="A516" s="5"/>
+      <c r="F516" s="6"/>
     </row>
     <row r="517">
-      <c r="C517" s="4"/>
+      <c r="A517" s="5"/>
+      <c r="F517" s="6"/>
     </row>
     <row r="518">
-      <c r="C518" s="4"/>
+      <c r="A518" s="5"/>
+      <c r="F518" s="6"/>
     </row>
     <row r="519">
-      <c r="C519" s="4"/>
+      <c r="A519" s="5"/>
+      <c r="F519" s="6"/>
     </row>
     <row r="520">
-      <c r="C520" s="4"/>
+      <c r="A520" s="5"/>
+      <c r="F520" s="6"/>
     </row>
     <row r="521">
-      <c r="C521" s="4"/>
+      <c r="A521" s="5"/>
+      <c r="F521" s="6"/>
     </row>
     <row r="522">
-      <c r="C522" s="4"/>
+      <c r="A522" s="5"/>
+      <c r="F522" s="6"/>
     </row>
     <row r="523">
-      <c r="C523" s="4"/>
+      <c r="A523" s="5"/>
+      <c r="F523" s="6"/>
     </row>
     <row r="524">
-      <c r="C524" s="4"/>
+      <c r="A524" s="5"/>
+      <c r="F524" s="6"/>
     </row>
     <row r="525">
-      <c r="C525" s="4"/>
+      <c r="A525" s="5"/>
+      <c r="F525" s="6"/>
     </row>
     <row r="526">
-      <c r="C526" s="4"/>
+      <c r="A526" s="5"/>
+      <c r="F526" s="6"/>
     </row>
     <row r="527">
-      <c r="C527" s="4"/>
+      <c r="A527" s="5"/>
+      <c r="F527" s="6"/>
     </row>
     <row r="528">
-      <c r="C528" s="4"/>
+      <c r="A528" s="5"/>
+      <c r="F528" s="6"/>
     </row>
     <row r="529">
-      <c r="C529" s="4"/>
+      <c r="A529" s="5"/>
+      <c r="F529" s="6"/>
     </row>
     <row r="530">
-      <c r="C530" s="4"/>
+      <c r="A530" s="5"/>
+      <c r="F530" s="6"/>
     </row>
     <row r="531">
-      <c r="C531" s="4"/>
+      <c r="A531" s="5"/>
+      <c r="F531" s="6"/>
     </row>
     <row r="532">
-      <c r="C532" s="4"/>
+      <c r="A532" s="5"/>
+      <c r="F532" s="6"/>
     </row>
     <row r="533">
-      <c r="C533" s="4"/>
+      <c r="A533" s="5"/>
+      <c r="F533" s="6"/>
     </row>
     <row r="534">
-      <c r="C534" s="4"/>
+      <c r="A534" s="5"/>
+      <c r="F534" s="6"/>
     </row>
     <row r="535">
-      <c r="C535" s="4"/>
+      <c r="A535" s="5"/>
+      <c r="F535" s="6"/>
     </row>
     <row r="536">
-      <c r="C536" s="4"/>
+      <c r="A536" s="5"/>
+      <c r="F536" s="6"/>
     </row>
     <row r="537">
-      <c r="C537" s="4"/>
+      <c r="A537" s="5"/>
+      <c r="F537" s="6"/>
     </row>
     <row r="538">
-      <c r="C538" s="4"/>
+      <c r="A538" s="5"/>
+      <c r="F538" s="6"/>
     </row>
     <row r="539">
-      <c r="C539" s="4"/>
+      <c r="A539" s="5"/>
+      <c r="F539" s="6"/>
     </row>
     <row r="540">
-      <c r="C540" s="4"/>
+      <c r="A540" s="5"/>
+      <c r="F540" s="6"/>
     </row>
     <row r="541">
-      <c r="C541" s="4"/>
+      <c r="A541" s="5"/>
+      <c r="F541" s="6"/>
     </row>
     <row r="542">
-      <c r="C542" s="4"/>
+      <c r="A542" s="5"/>
+      <c r="F542" s="6"/>
     </row>
     <row r="543">
-      <c r="C543" s="4"/>
+      <c r="A543" s="5"/>
+      <c r="F543" s="6"/>
     </row>
     <row r="544">
-      <c r="C544" s="4"/>
+      <c r="A544" s="5"/>
+      <c r="F544" s="6"/>
     </row>
     <row r="545">
-      <c r="C545" s="4"/>
+      <c r="A545" s="5"/>
+      <c r="F545" s="6"/>
     </row>
     <row r="546">
-      <c r="C546" s="4"/>
+      <c r="A546" s="5"/>
+      <c r="F546" s="6"/>
     </row>
     <row r="547">
-      <c r="C547" s="4"/>
+      <c r="A547" s="5"/>
+      <c r="F547" s="6"/>
     </row>
     <row r="548">
-      <c r="C548" s="4"/>
+      <c r="A548" s="5"/>
+      <c r="F548" s="6"/>
     </row>
     <row r="549">
-      <c r="C549" s="4"/>
+      <c r="A549" s="5"/>
+      <c r="F549" s="6"/>
     </row>
     <row r="550">
-      <c r="C550" s="4"/>
+      <c r="A550" s="5"/>
+      <c r="F550" s="6"/>
     </row>
     <row r="551">
-      <c r="C551" s="4"/>
+      <c r="A551" s="5"/>
+      <c r="F551" s="6"/>
     </row>
     <row r="552">
-      <c r="C552" s="4"/>
+      <c r="A552" s="5"/>
+      <c r="F552" s="6"/>
     </row>
     <row r="553">
-      <c r="C553" s="4"/>
+      <c r="A553" s="5"/>
+      <c r="F553" s="6"/>
     </row>
     <row r="554">
-      <c r="C554" s="4"/>
+      <c r="A554" s="5"/>
+      <c r="F554" s="6"/>
     </row>
     <row r="555">
-      <c r="C555" s="4"/>
+      <c r="A555" s="5"/>
+      <c r="F555" s="6"/>
     </row>
     <row r="556">
-      <c r="C556" s="4"/>
+      <c r="A556" s="5"/>
+      <c r="F556" s="6"/>
     </row>
     <row r="557">
-      <c r="C557" s="4"/>
+      <c r="A557" s="5"/>
+      <c r="F557" s="6"/>
     </row>
     <row r="558">
-      <c r="C558" s="4"/>
+      <c r="A558" s="5"/>
+      <c r="F558" s="6"/>
     </row>
     <row r="559">
-      <c r="C559" s="4"/>
+      <c r="A559" s="5"/>
+      <c r="F559" s="6"/>
     </row>
     <row r="560">
-      <c r="C560" s="4"/>
+      <c r="A560" s="5"/>
+      <c r="F560" s="6"/>
     </row>
     <row r="561">
-      <c r="C561" s="4"/>
+      <c r="A561" s="5"/>
+      <c r="F561" s="6"/>
     </row>
     <row r="562">
-      <c r="C562" s="4"/>
+      <c r="A562" s="5"/>
+      <c r="F562" s="6"/>
     </row>
     <row r="563">
-      <c r="C563" s="4"/>
+      <c r="A563" s="5"/>
+      <c r="F563" s="6"/>
     </row>
     <row r="564">
-      <c r="C564" s="4"/>
+      <c r="A564" s="5"/>
+      <c r="F564" s="6"/>
     </row>
     <row r="565">
-      <c r="C565" s="4"/>
+      <c r="A565" s="5"/>
+      <c r="F565" s="6"/>
     </row>
     <row r="566">
-      <c r="C566" s="4"/>
+      <c r="A566" s="5"/>
+      <c r="F566" s="6"/>
     </row>
     <row r="567">
-      <c r="C567" s="4"/>
+      <c r="A567" s="5"/>
+      <c r="F567" s="6"/>
     </row>
     <row r="568">
-      <c r="C568" s="4"/>
+      <c r="A568" s="5"/>
+      <c r="F568" s="6"/>
     </row>
     <row r="569">
-      <c r="C569" s="4"/>
+      <c r="A569" s="5"/>
+      <c r="F569" s="6"/>
     </row>
     <row r="570">
-      <c r="C570" s="4"/>
+      <c r="A570" s="5"/>
+      <c r="F570" s="6"/>
     </row>
     <row r="571">
-      <c r="C571" s="4"/>
+      <c r="A571" s="5"/>
+      <c r="F571" s="6"/>
     </row>
     <row r="572">
-      <c r="C572" s="4"/>
+      <c r="A572" s="5"/>
+      <c r="F572" s="6"/>
     </row>
     <row r="573">
-      <c r="C573" s="4"/>
+      <c r="A573" s="5"/>
+      <c r="F573" s="6"/>
     </row>
     <row r="574">
-      <c r="C574" s="4"/>
+      <c r="A574" s="5"/>
+      <c r="F574" s="6"/>
     </row>
     <row r="575">
-      <c r="C575" s="4"/>
+      <c r="A575" s="5"/>
+      <c r="F575" s="6"/>
     </row>
     <row r="576">
-      <c r="C576" s="4"/>
+      <c r="A576" s="5"/>
+      <c r="F576" s="6"/>
     </row>
     <row r="577">
-      <c r="C577" s="4"/>
+      <c r="A577" s="5"/>
+      <c r="F577" s="6"/>
     </row>
     <row r="578">
-      <c r="C578" s="4"/>
+      <c r="A578" s="5"/>
+      <c r="F578" s="6"/>
     </row>
     <row r="579">
-      <c r="C579" s="4"/>
+      <c r="A579" s="5"/>
+      <c r="F579" s="6"/>
     </row>
     <row r="580">
-      <c r="C580" s="4"/>
+      <c r="A580" s="5"/>
+      <c r="F580" s="6"/>
     </row>
     <row r="581">
-      <c r="C581" s="4"/>
+      <c r="A581" s="5"/>
+      <c r="F581" s="6"/>
     </row>
     <row r="582">
-      <c r="C582" s="4"/>
+      <c r="A582" s="5"/>
+      <c r="F582" s="6"/>
     </row>
     <row r="583">
-      <c r="C583" s="4"/>
+      <c r="A583" s="5"/>
+      <c r="F583" s="6"/>
     </row>
     <row r="584">
-      <c r="C584" s="4"/>
+      <c r="A584" s="5"/>
+      <c r="F584" s="6"/>
     </row>
     <row r="585">
-      <c r="C585" s="4"/>
+      <c r="A585" s="5"/>
+      <c r="F585" s="6"/>
     </row>
     <row r="586">
-      <c r="C586" s="4"/>
+      <c r="A586" s="5"/>
+      <c r="F586" s="6"/>
     </row>
     <row r="587">
-      <c r="C587" s="4"/>
+      <c r="A587" s="5"/>
+      <c r="F587" s="6"/>
     </row>
     <row r="588">
-      <c r="C588" s="4"/>
+      <c r="A588" s="5"/>
+      <c r="F588" s="6"/>
     </row>
     <row r="589">
-      <c r="C589" s="4"/>
+      <c r="A589" s="5"/>
+      <c r="F589" s="6"/>
     </row>
     <row r="590">
-      <c r="C590" s="4"/>
+      <c r="A590" s="5"/>
+      <c r="F590" s="6"/>
     </row>
     <row r="591">
-      <c r="C591" s="4"/>
+      <c r="A591" s="5"/>
+      <c r="F591" s="6"/>
     </row>
     <row r="592">
-      <c r="C592" s="4"/>
+      <c r="A592" s="5"/>
+      <c r="F592" s="6"/>
     </row>
     <row r="593">
-      <c r="C593" s="4"/>
+      <c r="A593" s="5"/>
+      <c r="F593" s="6"/>
     </row>
     <row r="594">
-      <c r="C594" s="4"/>
+      <c r="A594" s="5"/>
+      <c r="F594" s="6"/>
     </row>
     <row r="595">
-      <c r="C595" s="4"/>
+      <c r="A595" s="5"/>
+      <c r="F595" s="6"/>
     </row>
     <row r="596">
-      <c r="C596" s="4"/>
+      <c r="A596" s="5"/>
+      <c r="F596" s="6"/>
     </row>
     <row r="597">
-      <c r="C597" s="4"/>
+      <c r="A597" s="5"/>
+      <c r="F597" s="6"/>
     </row>
     <row r="598">
-      <c r="C598" s="4"/>
+      <c r="A598" s="5"/>
+      <c r="F598" s="6"/>
     </row>
     <row r="599">
-      <c r="C599" s="4"/>
+      <c r="A599" s="5"/>
+      <c r="F599" s="6"/>
     </row>
     <row r="600">
-      <c r="C600" s="4"/>
+      <c r="A600" s="5"/>
+      <c r="F600" s="6"/>
     </row>
     <row r="601">
-      <c r="C601" s="4"/>
+      <c r="A601" s="5"/>
+      <c r="F601" s="6"/>
     </row>
     <row r="602">
-      <c r="C602" s="4"/>
+      <c r="A602" s="5"/>
+      <c r="F602" s="6"/>
     </row>
     <row r="603">
-      <c r="C603" s="4"/>
+      <c r="A603" s="5"/>
+      <c r="F603" s="6"/>
     </row>
     <row r="604">
-      <c r="C604" s="4"/>
+      <c r="A604" s="5"/>
+      <c r="F604" s="6"/>
     </row>
     <row r="605">
-      <c r="C605" s="4"/>
+      <c r="A605" s="5"/>
+      <c r="F605" s="6"/>
     </row>
     <row r="606">
-      <c r="C606" s="4"/>
+      <c r="A606" s="5"/>
+      <c r="F606" s="6"/>
     </row>
     <row r="607">
-      <c r="C607" s="4"/>
+      <c r="A607" s="5"/>
+      <c r="F607" s="6"/>
     </row>
     <row r="608">
-      <c r="C608" s="4"/>
+      <c r="A608" s="5"/>
+      <c r="F608" s="6"/>
     </row>
     <row r="609">
-      <c r="C609" s="4"/>
+      <c r="A609" s="5"/>
+      <c r="F609" s="6"/>
     </row>
     <row r="610">
-      <c r="C610" s="4"/>
+      <c r="A610" s="5"/>
+      <c r="F610" s="6"/>
     </row>
     <row r="611">
-      <c r="C611" s="4"/>
+      <c r="A611" s="5"/>
+      <c r="F611" s="6"/>
     </row>
     <row r="612">
-      <c r="C612" s="4"/>
+      <c r="A612" s="5"/>
+      <c r="F612" s="6"/>
     </row>
     <row r="613">
-      <c r="C613" s="4"/>
+      <c r="A613" s="5"/>
+      <c r="F613" s="6"/>
     </row>
     <row r="614">
-      <c r="C614" s="4"/>
+      <c r="A614" s="5"/>
+      <c r="F614" s="6"/>
     </row>
     <row r="615">
-      <c r="C615" s="4"/>
+      <c r="A615" s="5"/>
+      <c r="F615" s="6"/>
     </row>
     <row r="616">
-      <c r="C616" s="4"/>
+      <c r="A616" s="5"/>
+      <c r="F616" s="6"/>
     </row>
     <row r="617">
-      <c r="C617" s="4"/>
+      <c r="A617" s="5"/>
+      <c r="F617" s="6"/>
     </row>
     <row r="618">
-      <c r="C618" s="4"/>
+      <c r="A618" s="5"/>
+      <c r="F618" s="6"/>
     </row>
     <row r="619">
-      <c r="C619" s="4"/>
+      <c r="A619" s="5"/>
+      <c r="F619" s="6"/>
     </row>
     <row r="620">
-      <c r="C620" s="4"/>
+      <c r="A620" s="5"/>
+      <c r="F620" s="6"/>
     </row>
     <row r="621">
-      <c r="C621" s="4"/>
+      <c r="A621" s="5"/>
+      <c r="F621" s="6"/>
     </row>
     <row r="622">
-      <c r="C622" s="4"/>
+      <c r="A622" s="5"/>
+      <c r="F622" s="6"/>
     </row>
     <row r="623">
-      <c r="C623" s="4"/>
+      <c r="A623" s="5"/>
+      <c r="F623" s="6"/>
     </row>
     <row r="624">
-      <c r="C624" s="4"/>
+      <c r="A624" s="5"/>
+      <c r="F624" s="6"/>
     </row>
     <row r="625">
-      <c r="C625" s="4"/>
+      <c r="A625" s="5"/>
+      <c r="F625" s="6"/>
     </row>
     <row r="626">
-      <c r="C626" s="4"/>
+      <c r="A626" s="5"/>
+      <c r="F626" s="6"/>
     </row>
     <row r="627">
-      <c r="C627" s="4"/>
+      <c r="A627" s="5"/>
+      <c r="F627" s="6"/>
     </row>
     <row r="628">
-      <c r="C628" s="4"/>
+      <c r="A628" s="5"/>
+      <c r="F628" s="6"/>
     </row>
     <row r="629">
-      <c r="C629" s="4"/>
+      <c r="A629" s="5"/>
+      <c r="F629" s="6"/>
     </row>
     <row r="630">
-      <c r="C630" s="4"/>
+      <c r="A630" s="5"/>
+      <c r="F630" s="6"/>
     </row>
     <row r="631">
-      <c r="C631" s="4"/>
+      <c r="A631" s="5"/>
+      <c r="F631" s="6"/>
     </row>
     <row r="632">
-      <c r="C632" s="4"/>
+      <c r="A632" s="5"/>
+      <c r="F632" s="6"/>
     </row>
     <row r="633">
-      <c r="C633" s="4"/>
+      <c r="A633" s="5"/>
+      <c r="F633" s="6"/>
     </row>
     <row r="634">
-      <c r="C634" s="4"/>
+      <c r="A634" s="5"/>
+      <c r="F634" s="6"/>
     </row>
     <row r="635">
-      <c r="C635" s="4"/>
+      <c r="A635" s="5"/>
+      <c r="F635" s="6"/>
     </row>
     <row r="636">
-      <c r="C636" s="4"/>
+      <c r="A636" s="5"/>
+      <c r="F636" s="6"/>
     </row>
     <row r="637">
-      <c r="C637" s="4"/>
+      <c r="A637" s="5"/>
+      <c r="F637" s="6"/>
     </row>
     <row r="638">
-      <c r="C638" s="4"/>
+      <c r="A638" s="5"/>
+      <c r="F638" s="6"/>
     </row>
     <row r="639">
-      <c r="C639" s="4"/>
+      <c r="A639" s="5"/>
+      <c r="F639" s="6"/>
     </row>
     <row r="640">
-      <c r="C640" s="4"/>
+      <c r="A640" s="5"/>
+      <c r="F640" s="6"/>
     </row>
     <row r="641">
-      <c r="C641" s="4"/>
+      <c r="A641" s="5"/>
+      <c r="F641" s="6"/>
     </row>
     <row r="642">
-      <c r="C642" s="4"/>
+      <c r="A642" s="5"/>
+      <c r="F642" s="6"/>
     </row>
     <row r="643">
-      <c r="C643" s="4"/>
+      <c r="A643" s="5"/>
+      <c r="F643" s="6"/>
     </row>
     <row r="644">
-      <c r="C644" s="4"/>
+      <c r="A644" s="5"/>
+      <c r="F644" s="6"/>
     </row>
     <row r="645">
-      <c r="C645" s="4"/>
+      <c r="A645" s="5"/>
+      <c r="F645" s="6"/>
     </row>
     <row r="646">
-      <c r="C646" s="4"/>
+      <c r="A646" s="5"/>
+      <c r="F646" s="6"/>
     </row>
     <row r="647">
-      <c r="C647" s="4"/>
+      <c r="A647" s="5"/>
+      <c r="F647" s="6"/>
     </row>
     <row r="648">
-      <c r="C648" s="4"/>
+      <c r="A648" s="5"/>
+      <c r="F648" s="6"/>
     </row>
     <row r="649">
-      <c r="C649" s="4"/>
+      <c r="A649" s="5"/>
+      <c r="F649" s="6"/>
     </row>
     <row r="650">
-      <c r="C650" s="4"/>
+      <c r="A650" s="5"/>
+      <c r="F650" s="6"/>
     </row>
     <row r="651">
-      <c r="C651" s="4"/>
+      <c r="A651" s="5"/>
+      <c r="F651" s="6"/>
     </row>
     <row r="652">
-      <c r="C652" s="4"/>
+      <c r="A652" s="5"/>
+      <c r="F652" s="6"/>
     </row>
     <row r="653">
-      <c r="C653" s="4"/>
+      <c r="A653" s="5"/>
+      <c r="F653" s="6"/>
     </row>
     <row r="654">
-      <c r="C654" s="4"/>
+      <c r="A654" s="5"/>
+      <c r="F654" s="6"/>
     </row>
     <row r="655">
-      <c r="C655" s="4"/>
+      <c r="A655" s="5"/>
+      <c r="F655" s="6"/>
     </row>
     <row r="656">
-      <c r="C656" s="4"/>
+      <c r="A656" s="5"/>
+      <c r="F656" s="6"/>
     </row>
     <row r="657">
-      <c r="C657" s="4"/>
+      <c r="A657" s="5"/>
+      <c r="F657" s="6"/>
     </row>
     <row r="658">
-      <c r="C658" s="4"/>
+      <c r="A658" s="5"/>
+      <c r="F658" s="6"/>
     </row>
     <row r="659">
-      <c r="C659" s="4"/>
+      <c r="A659" s="5"/>
+      <c r="F659" s="6"/>
     </row>
     <row r="660">
-      <c r="C660" s="4"/>
+      <c r="A660" s="5"/>
+      <c r="F660" s="6"/>
     </row>
     <row r="661">
-      <c r="C661" s="4"/>
+      <c r="A661" s="5"/>
+      <c r="F661" s="6"/>
     </row>
     <row r="662">
-      <c r="C662" s="4"/>
+      <c r="A662" s="5"/>
+      <c r="F662" s="6"/>
     </row>
     <row r="663">
-      <c r="C663" s="4"/>
+      <c r="A663" s="5"/>
+      <c r="F663" s="6"/>
     </row>
     <row r="664">
-      <c r="C664" s="4"/>
+      <c r="A664" s="5"/>
+      <c r="F664" s="6"/>
     </row>
     <row r="665">
-      <c r="C665" s="4"/>
+      <c r="A665" s="5"/>
+      <c r="F665" s="6"/>
     </row>
     <row r="666">
-      <c r="C666" s="4"/>
+      <c r="A666" s="5"/>
+      <c r="F666" s="6"/>
     </row>
     <row r="667">
-      <c r="C667" s="4"/>
+      <c r="A667" s="5"/>
+      <c r="F667" s="6"/>
     </row>
     <row r="668">
-      <c r="C668" s="4"/>
+      <c r="A668" s="5"/>
+      <c r="F668" s="6"/>
     </row>
     <row r="669">
-      <c r="C669" s="4"/>
+      <c r="A669" s="5"/>
+      <c r="F669" s="6"/>
     </row>
     <row r="670">
-      <c r="C670" s="4"/>
+      <c r="A670" s="5"/>
+      <c r="F670" s="6"/>
     </row>
     <row r="671">
-      <c r="C671" s="4"/>
+      <c r="A671" s="5"/>
+      <c r="F671" s="6"/>
     </row>
     <row r="672">
-      <c r="C672" s="4"/>
+      <c r="A672" s="5"/>
+      <c r="F672" s="6"/>
     </row>
     <row r="673">
-      <c r="C673" s="4"/>
+      <c r="A673" s="5"/>
+      <c r="F673" s="6"/>
     </row>
     <row r="674">
-      <c r="C674" s="4"/>
+      <c r="A674" s="5"/>
+      <c r="F674" s="6"/>
     </row>
     <row r="675">
-      <c r="C675" s="4"/>
+      <c r="A675" s="5"/>
+      <c r="F675" s="6"/>
     </row>
     <row r="676">
-      <c r="C676" s="4"/>
+      <c r="A676" s="5"/>
+      <c r="F676" s="6"/>
     </row>
     <row r="677">
-      <c r="C677" s="4"/>
+      <c r="A677" s="5"/>
+      <c r="F677" s="6"/>
     </row>
     <row r="678">
-      <c r="C678" s="4"/>
+      <c r="A678" s="5"/>
+      <c r="F678" s="6"/>
     </row>
     <row r="679">
-      <c r="C679" s="4"/>
+      <c r="A679" s="5"/>
+      <c r="F679" s="6"/>
     </row>
     <row r="680">
-      <c r="C680" s="4"/>
+      <c r="A680" s="5"/>
+      <c r="F680" s="6"/>
     </row>
     <row r="681">
-      <c r="C681" s="4"/>
+      <c r="A681" s="5"/>
+      <c r="F681" s="6"/>
     </row>
     <row r="682">
-      <c r="C682" s="4"/>
+      <c r="A682" s="5"/>
+      <c r="F682" s="6"/>
     </row>
     <row r="683">
-      <c r="C683" s="4"/>
+      <c r="A683" s="5"/>
+      <c r="F683" s="6"/>
     </row>
     <row r="684">
-      <c r="C684" s="4"/>
+      <c r="A684" s="5"/>
+      <c r="F684" s="6"/>
     </row>
     <row r="685">
-      <c r="C685" s="4"/>
+      <c r="A685" s="5"/>
+      <c r="F685" s="6"/>
     </row>
     <row r="686">
-      <c r="C686" s="4"/>
+      <c r="A686" s="5"/>
+      <c r="F686" s="6"/>
     </row>
     <row r="687">
-      <c r="C687" s="4"/>
+      <c r="A687" s="5"/>
+      <c r="F687" s="6"/>
     </row>
     <row r="688">
-      <c r="C688" s="4"/>
+      <c r="A688" s="5"/>
+      <c r="F688" s="6"/>
     </row>
     <row r="689">
-      <c r="C689" s="4"/>
+      <c r="A689" s="5"/>
+      <c r="F689" s="6"/>
     </row>
     <row r="690">
-      <c r="C690" s="4"/>
+      <c r="A690" s="5"/>
+      <c r="F690" s="6"/>
     </row>
     <row r="691">
-      <c r="C691" s="4"/>
+      <c r="A691" s="5"/>
+      <c r="F691" s="6"/>
     </row>
     <row r="692">
-      <c r="C692" s="4"/>
+      <c r="A692" s="5"/>
+      <c r="F692" s="6"/>
     </row>
     <row r="693">
-      <c r="C693" s="4"/>
+      <c r="A693" s="5"/>
+      <c r="F693" s="6"/>
     </row>
     <row r="694">
-      <c r="C694" s="4"/>
+      <c r="A694" s="5"/>
+      <c r="F694" s="6"/>
     </row>
     <row r="695">
-      <c r="C695" s="4"/>
+      <c r="A695" s="5"/>
+      <c r="F695" s="6"/>
     </row>
     <row r="696">
-      <c r="C696" s="4"/>
+      <c r="A696" s="5"/>
+      <c r="F696" s="6"/>
     </row>
     <row r="697">
-      <c r="C697" s="4"/>
+      <c r="A697" s="5"/>
+      <c r="F697" s="6"/>
     </row>
     <row r="698">
-      <c r="C698" s="4"/>
+      <c r="A698" s="5"/>
+      <c r="F698" s="6"/>
     </row>
     <row r="699">
-      <c r="C699" s="4"/>
+      <c r="A699" s="5"/>
+      <c r="F699" s="6"/>
     </row>
     <row r="700">
-      <c r="C700" s="4"/>
+      <c r="A700" s="5"/>
+      <c r="F700" s="6"/>
     </row>
     <row r="701">
-      <c r="C701" s="4"/>
+      <c r="A701" s="5"/>
+      <c r="F701" s="6"/>
     </row>
     <row r="702">
-      <c r="C702" s="4"/>
+      <c r="A702" s="5"/>
+      <c r="F702" s="6"/>
     </row>
     <row r="703">
-      <c r="C703" s="4"/>
+      <c r="A703" s="5"/>
+      <c r="F703" s="6"/>
     </row>
     <row r="704">
-      <c r="C704" s="4"/>
+      <c r="A704" s="5"/>
+      <c r="F704" s="6"/>
     </row>
     <row r="705">
-      <c r="C705" s="4"/>
+      <c r="A705" s="5"/>
+      <c r="F705" s="6"/>
     </row>
     <row r="706">
-      <c r="C706" s="4"/>
+      <c r="A706" s="5"/>
+      <c r="F706" s="6"/>
     </row>
     <row r="707">
-      <c r="C707" s="4"/>
+      <c r="A707" s="5"/>
+      <c r="F707" s="6"/>
     </row>
     <row r="708">
-      <c r="C708" s="4"/>
+      <c r="A708" s="5"/>
+      <c r="F708" s="6"/>
     </row>
     <row r="709">
-      <c r="C709" s="4"/>
+      <c r="A709" s="5"/>
+      <c r="F709" s="6"/>
     </row>
     <row r="710">
-      <c r="C710" s="4"/>
+      <c r="A710" s="5"/>
+      <c r="F710" s="6"/>
     </row>
     <row r="711">
-      <c r="C711" s="4"/>
+      <c r="A711" s="5"/>
+      <c r="F711" s="6"/>
     </row>
     <row r="712">
-      <c r="C712" s="4"/>
+      <c r="A712" s="5"/>
+      <c r="F712" s="6"/>
     </row>
     <row r="713">
-      <c r="C713" s="4"/>
+      <c r="A713" s="5"/>
+      <c r="F713" s="6"/>
     </row>
     <row r="714">
-      <c r="C714" s="4"/>
+      <c r="A714" s="5"/>
+      <c r="F714" s="6"/>
     </row>
     <row r="715">
-      <c r="C715" s="4"/>
+      <c r="A715" s="5"/>
+      <c r="F715" s="6"/>
     </row>
     <row r="716">
-      <c r="C716" s="4"/>
+      <c r="A716" s="5"/>
+      <c r="F716" s="6"/>
     </row>
     <row r="717">
-      <c r="C717" s="4"/>
+      <c r="A717" s="5"/>
+      <c r="F717" s="6"/>
     </row>
     <row r="718">
-      <c r="C718" s="4"/>
+      <c r="A718" s="5"/>
+      <c r="F718" s="6"/>
     </row>
     <row r="719">
-      <c r="C719" s="4"/>
+      <c r="A719" s="5"/>
+      <c r="F719" s="6"/>
     </row>
     <row r="720">
-      <c r="C720" s="4"/>
+      <c r="A720" s="5"/>
+      <c r="F720" s="6"/>
     </row>
     <row r="721">
-      <c r="C721" s="4"/>
+      <c r="A721" s="5"/>
+      <c r="F721" s="6"/>
     </row>
     <row r="722">
-      <c r="C722" s="4"/>
+      <c r="A722" s="5"/>
+      <c r="F722" s="6"/>
     </row>
     <row r="723">
-      <c r="C723" s="4"/>
+      <c r="A723" s="5"/>
+      <c r="F723" s="6"/>
     </row>
     <row r="724">
-      <c r="C724" s="4"/>
+      <c r="A724" s="5"/>
+      <c r="F724" s="6"/>
     </row>
     <row r="725">
-      <c r="C725" s="4"/>
+      <c r="A725" s="5"/>
+      <c r="F725" s="6"/>
     </row>
     <row r="726">
-      <c r="C726" s="4"/>
+      <c r="A726" s="5"/>
+      <c r="F726" s="6"/>
     </row>
     <row r="727">
-      <c r="C727" s="4"/>
+      <c r="A727" s="5"/>
+      <c r="F727" s="6"/>
     </row>
     <row r="728">
-      <c r="C728" s="4"/>
+      <c r="A728" s="5"/>
+      <c r="F728" s="6"/>
     </row>
     <row r="729">
-      <c r="C729" s="4"/>
+      <c r="A729" s="5"/>
+      <c r="F729" s="6"/>
     </row>
     <row r="730">
-      <c r="C730" s="4"/>
+      <c r="A730" s="5"/>
+      <c r="F730" s="6"/>
     </row>
     <row r="731">
-      <c r="C731" s="4"/>
+      <c r="A731" s="5"/>
+      <c r="F731" s="6"/>
     </row>
     <row r="732">
-      <c r="C732" s="4"/>
+      <c r="A732" s="5"/>
+      <c r="F732" s="6"/>
     </row>
     <row r="733">
-      <c r="C733" s="4"/>
+      <c r="A733" s="5"/>
+      <c r="F733" s="6"/>
     </row>
     <row r="734">
-      <c r="C734" s="4"/>
+      <c r="A734" s="5"/>
+      <c r="F734" s="6"/>
     </row>
     <row r="735">
-      <c r="C735" s="4"/>
+      <c r="A735" s="5"/>
+      <c r="F735" s="6"/>
     </row>
     <row r="736">
-      <c r="C736" s="4"/>
+      <c r="A736" s="5"/>
+      <c r="F736" s="6"/>
     </row>
     <row r="737">
-      <c r="C737" s="4"/>
+      <c r="A737" s="5"/>
+      <c r="F737" s="6"/>
     </row>
     <row r="738">
-      <c r="C738" s="4"/>
+      <c r="A738" s="5"/>
+      <c r="F738" s="6"/>
     </row>
     <row r="739">
-      <c r="C739" s="4"/>
+      <c r="A739" s="5"/>
+      <c r="F739" s="6"/>
     </row>
     <row r="740">
-      <c r="C740" s="4"/>
+      <c r="A740" s="5"/>
+      <c r="F740" s="6"/>
     </row>
     <row r="741">
-      <c r="C741" s="4"/>
+      <c r="A741" s="5"/>
+      <c r="F741" s="6"/>
     </row>
     <row r="742">
-      <c r="C742" s="4"/>
+      <c r="A742" s="5"/>
+      <c r="F742" s="6"/>
     </row>
     <row r="743">
-      <c r="C743" s="4"/>
+      <c r="A743" s="5"/>
+      <c r="F743" s="6"/>
     </row>
     <row r="744">
-      <c r="C744" s="4"/>
+      <c r="A744" s="5"/>
+      <c r="F744" s="6"/>
     </row>
     <row r="745">
-      <c r="C745" s="4"/>
+      <c r="A745" s="5"/>
+      <c r="F745" s="6"/>
     </row>
     <row r="746">
-      <c r="C746" s="4"/>
+      <c r="A746" s="5"/>
+      <c r="F746" s="6"/>
     </row>
     <row r="747">
-      <c r="C747" s="4"/>
+      <c r="A747" s="5"/>
+      <c r="F747" s="6"/>
     </row>
     <row r="748">
-      <c r="C748" s="4"/>
+      <c r="A748" s="5"/>
+      <c r="F748" s="6"/>
     </row>
     <row r="749">
-      <c r="C749" s="4"/>
+      <c r="A749" s="5"/>
+      <c r="F749" s="6"/>
     </row>
     <row r="750">
-      <c r="C750" s="4"/>
+      <c r="A750" s="5"/>
+      <c r="F750" s="6"/>
     </row>
     <row r="751">
-      <c r="C751" s="4"/>
+      <c r="A751" s="5"/>
+      <c r="F751" s="6"/>
     </row>
     <row r="752">
-      <c r="C752" s="4"/>
+      <c r="A752" s="5"/>
+      <c r="F752" s="6"/>
     </row>
     <row r="753">
-      <c r="C753" s="4"/>
+      <c r="A753" s="5"/>
+      <c r="F753" s="6"/>
     </row>
     <row r="754">
-      <c r="C754" s="4"/>
+      <c r="A754" s="5"/>
+      <c r="F754" s="6"/>
     </row>
     <row r="755">
-      <c r="C755" s="4"/>
+      <c r="A755" s="5"/>
+      <c r="F755" s="6"/>
     </row>
     <row r="756">
-      <c r="C756" s="4"/>
+      <c r="A756" s="5"/>
+      <c r="F756" s="6"/>
     </row>
     <row r="757">
-      <c r="C757" s="4"/>
+      <c r="A757" s="5"/>
+      <c r="F757" s="6"/>
     </row>
     <row r="758">
-      <c r="C758" s="4"/>
+      <c r="A758" s="5"/>
+      <c r="F758" s="6"/>
     </row>
     <row r="759">
-      <c r="C759" s="4"/>
+      <c r="A759" s="5"/>
+      <c r="F759" s="6"/>
     </row>
     <row r="760">
-      <c r="C760" s="4"/>
+      <c r="A760" s="5"/>
+      <c r="F760" s="6"/>
     </row>
     <row r="761">
-      <c r="C761" s="4"/>
+      <c r="A761" s="5"/>
+      <c r="F761" s="6"/>
     </row>
     <row r="762">
-      <c r="C762" s="4"/>
+      <c r="A762" s="5"/>
+      <c r="F762" s="6"/>
     </row>
     <row r="763">
-      <c r="C763" s="4"/>
+      <c r="A763" s="5"/>
+      <c r="F763" s="6"/>
     </row>
     <row r="764">
-      <c r="C764" s="4"/>
+      <c r="A764" s="5"/>
+      <c r="F764" s="6"/>
     </row>
     <row r="765">
-      <c r="C765" s="4"/>
+      <c r="A765" s="5"/>
+      <c r="F765" s="6"/>
     </row>
     <row r="766">
-      <c r="C766" s="4"/>
+      <c r="A766" s="5"/>
+      <c r="F766" s="6"/>
     </row>
     <row r="767">
-      <c r="C767" s="4"/>
+      <c r="A767" s="5"/>
+      <c r="F767" s="6"/>
     </row>
     <row r="768">
-      <c r="C768" s="4"/>
+      <c r="A768" s="5"/>
+      <c r="F768" s="6"/>
     </row>
     <row r="769">
-      <c r="C769" s="4"/>
+      <c r="A769" s="5"/>
+      <c r="F769" s="6"/>
     </row>
     <row r="770">
-      <c r="C770" s="4"/>
+      <c r="A770" s="5"/>
+      <c r="F770" s="6"/>
     </row>
     <row r="771">
-      <c r="C771" s="4"/>
+      <c r="A771" s="5"/>
+      <c r="F771" s="6"/>
     </row>
     <row r="772">
-      <c r="C772" s="4"/>
+      <c r="A772" s="5"/>
+      <c r="F772" s="6"/>
     </row>
     <row r="773">
-      <c r="C773" s="4"/>
+      <c r="A773" s="5"/>
+      <c r="F773" s="6"/>
     </row>
     <row r="774">
-      <c r="C774" s="4"/>
+      <c r="A774" s="5"/>
+      <c r="F774" s="6"/>
     </row>
     <row r="775">
-      <c r="C775" s="4"/>
+      <c r="A775" s="5"/>
+      <c r="F775" s="6"/>
     </row>
     <row r="776">
-      <c r="C776" s="4"/>
+      <c r="A776" s="5"/>
+      <c r="F776" s="6"/>
     </row>
     <row r="777">
-      <c r="C777" s="4"/>
+      <c r="A777" s="5"/>
+      <c r="F777" s="6"/>
     </row>
     <row r="778">
-      <c r="C778" s="4"/>
+      <c r="A778" s="5"/>
+      <c r="F778" s="6"/>
     </row>
     <row r="779">
-      <c r="C779" s="4"/>
+      <c r="A779" s="5"/>
+      <c r="F779" s="6"/>
     </row>
     <row r="780">
-      <c r="C780" s="4"/>
+      <c r="A780" s="5"/>
+      <c r="F780" s="6"/>
     </row>
     <row r="781">
-      <c r="C781" s="4"/>
+      <c r="A781" s="5"/>
+      <c r="F781" s="6"/>
     </row>
     <row r="782">
-      <c r="C782" s="4"/>
+      <c r="A782" s="5"/>
+      <c r="F782" s="6"/>
     </row>
     <row r="783">
-      <c r="C783" s="4"/>
+      <c r="A783" s="5"/>
+      <c r="F783" s="6"/>
     </row>
     <row r="784">
-      <c r="C784" s="4"/>
+      <c r="A784" s="5"/>
+      <c r="F784" s="6"/>
     </row>
     <row r="785">
-      <c r="C785" s="4"/>
+      <c r="A785" s="5"/>
+      <c r="F785" s="6"/>
     </row>
     <row r="786">
-      <c r="C786" s="4"/>
+      <c r="A786" s="5"/>
+      <c r="F786" s="6"/>
     </row>
     <row r="787">
-      <c r="C787" s="4"/>
+      <c r="A787" s="5"/>
+      <c r="F787" s="6"/>
     </row>
     <row r="788">
-      <c r="C788" s="4"/>
+      <c r="A788" s="5"/>
+      <c r="F788" s="6"/>
     </row>
     <row r="789">
-      <c r="C789" s="4"/>
+      <c r="A789" s="5"/>
+      <c r="F789" s="6"/>
     </row>
     <row r="790">
-      <c r="C790" s="4"/>
+      <c r="A790" s="5"/>
+      <c r="F790" s="6"/>
     </row>
     <row r="791">
-      <c r="C791" s="4"/>
+      <c r="A791" s="5"/>
+      <c r="F791" s="6"/>
     </row>
     <row r="792">
-      <c r="C792" s="4"/>
+      <c r="A792" s="5"/>
+      <c r="F792" s="6"/>
     </row>
     <row r="793">
-      <c r="C793" s="4"/>
+      <c r="A793" s="5"/>
+      <c r="F793" s="6"/>
     </row>
     <row r="794">
-      <c r="C794" s="4"/>
+      <c r="A794" s="5"/>
+      <c r="F794" s="6"/>
     </row>
     <row r="795">
-      <c r="C795" s="4"/>
+      <c r="A795" s="5"/>
+      <c r="F795" s="6"/>
     </row>
     <row r="796">
-      <c r="C796" s="4"/>
+      <c r="A796" s="5"/>
+      <c r="F796" s="6"/>
     </row>
     <row r="797">
-      <c r="C797" s="4"/>
+      <c r="A797" s="5"/>
+      <c r="F797" s="6"/>
     </row>
     <row r="798">
-      <c r="C798" s="4"/>
+      <c r="A798" s="5"/>
+      <c r="F798" s="6"/>
     </row>
     <row r="799">
-      <c r="C799" s="4"/>
+      <c r="A799" s="5"/>
+      <c r="F799" s="6"/>
     </row>
     <row r="800">
-      <c r="C800" s="4"/>
+      <c r="A800" s="5"/>
+      <c r="F800" s="6"/>
     </row>
     <row r="801">
-      <c r="C801" s="4"/>
+      <c r="A801" s="5"/>
+      <c r="F801" s="6"/>
     </row>
     <row r="802">
-      <c r="C802" s="4"/>
+      <c r="A802" s="5"/>
+      <c r="F802" s="6"/>
     </row>
     <row r="803">
-      <c r="C803" s="4"/>
+      <c r="A803" s="5"/>
+      <c r="F803" s="6"/>
     </row>
     <row r="804">
-      <c r="C804" s="4"/>
+      <c r="A804" s="5"/>
+      <c r="F804" s="6"/>
     </row>
     <row r="805">
-      <c r="C805" s="4"/>
+      <c r="A805" s="5"/>
+      <c r="F805" s="6"/>
     </row>
     <row r="806">
-      <c r="C806" s="4"/>
+      <c r="A806" s="5"/>
+      <c r="F806" s="6"/>
     </row>
     <row r="807">
-      <c r="C807" s="4"/>
+      <c r="A807" s="5"/>
+      <c r="F807" s="6"/>
     </row>
     <row r="808">
-      <c r="C808" s="4"/>
+      <c r="A808" s="5"/>
+      <c r="F808" s="6"/>
     </row>
     <row r="809">
-      <c r="C809" s="4"/>
+      <c r="A809" s="5"/>
+      <c r="F809" s="6"/>
     </row>
     <row r="810">
-      <c r="C810" s="4"/>
+      <c r="A810" s="5"/>
+      <c r="F810" s="6"/>
     </row>
     <row r="811">
-      <c r="C811" s="4"/>
+      <c r="A811" s="5"/>
+      <c r="F811" s="6"/>
     </row>
     <row r="812">
-      <c r="C812" s="4"/>
+      <c r="A812" s="5"/>
+      <c r="F812" s="6"/>
     </row>
     <row r="813">
-      <c r="C813" s="4"/>
+      <c r="A813" s="5"/>
+      <c r="F813" s="6"/>
     </row>
     <row r="814">
-      <c r="C814" s="4"/>
+      <c r="A814" s="5"/>
+      <c r="F814" s="6"/>
     </row>
     <row r="815">
-      <c r="C815" s="4"/>
+      <c r="A815" s="5"/>
+      <c r="F815" s="6"/>
     </row>
     <row r="816">
-      <c r="C816" s="4"/>
+      <c r="A816" s="5"/>
+      <c r="F816" s="6"/>
     </row>
     <row r="817">
-      <c r="C817" s="4"/>
+      <c r="A817" s="5"/>
+      <c r="F817" s="6"/>
     </row>
     <row r="818">
-      <c r="C818" s="4"/>
+      <c r="A818" s="5"/>
+      <c r="F818" s="6"/>
     </row>
     <row r="819">
-      <c r="C819" s="4"/>
+      <c r="A819" s="5"/>
+      <c r="F819" s="6"/>
     </row>
     <row r="820">
-      <c r="C820" s="4"/>
+      <c r="A820" s="5"/>
+      <c r="F820" s="6"/>
     </row>
     <row r="821">
-      <c r="C821" s="4"/>
+      <c r="A821" s="5"/>
+      <c r="F821" s="6"/>
     </row>
     <row r="822">
-      <c r="C822" s="4"/>
+      <c r="A822" s="5"/>
+      <c r="F822" s="6"/>
     </row>
     <row r="823">
-      <c r="C823" s="4"/>
+      <c r="A823" s="5"/>
+      <c r="F823" s="6"/>
     </row>
     <row r="824">
-      <c r="C824" s="4"/>
+      <c r="A824" s="5"/>
+      <c r="F824" s="6"/>
     </row>
     <row r="825">
-      <c r="C825" s="4"/>
+      <c r="A825" s="5"/>
+      <c r="F825" s="6"/>
     </row>
     <row r="826">
-      <c r="C826" s="4"/>
+      <c r="A826" s="5"/>
+      <c r="F826" s="6"/>
     </row>
     <row r="827">
-      <c r="C827" s="4"/>
+      <c r="A827" s="5"/>
+      <c r="F827" s="6"/>
     </row>
     <row r="828">
-      <c r="C828" s="4"/>
+      <c r="A828" s="5"/>
+      <c r="F828" s="6"/>
     </row>
     <row r="829">
-      <c r="C829" s="4"/>
+      <c r="A829" s="5"/>
+      <c r="F829" s="6"/>
     </row>
     <row r="830">
-      <c r="C830" s="4"/>
+      <c r="A830" s="5"/>
+      <c r="F830" s="6"/>
     </row>
     <row r="831">
-      <c r="C831" s="4"/>
+      <c r="A831" s="5"/>
+      <c r="F831" s="6"/>
     </row>
     <row r="832">
-      <c r="C832" s="4"/>
+      <c r="A832" s="5"/>
+      <c r="F832" s="6"/>
     </row>
     <row r="833">
-      <c r="C833" s="4"/>
+      <c r="A833" s="5"/>
+      <c r="F833" s="6"/>
     </row>
     <row r="834">
-      <c r="C834" s="4"/>
+      <c r="A834" s="5"/>
+      <c r="F834" s="6"/>
     </row>
     <row r="835">
-      <c r="C835" s="4"/>
+      <c r="A835" s="5"/>
+      <c r="F835" s="6"/>
     </row>
     <row r="836">
-      <c r="C836" s="4"/>
+      <c r="A836" s="5"/>
+      <c r="F836" s="6"/>
     </row>
     <row r="837">
-      <c r="C837" s="4"/>
+      <c r="A837" s="5"/>
+      <c r="F837" s="6"/>
     </row>
     <row r="838">
-      <c r="C838" s="4"/>
+      <c r="A838" s="5"/>
+      <c r="F838" s="6"/>
     </row>
     <row r="839">
-      <c r="C839" s="4"/>
+      <c r="A839" s="5"/>
+      <c r="F839" s="6"/>
     </row>
     <row r="840">
-      <c r="C840" s="4"/>
+      <c r="A840" s="5"/>
+      <c r="F840" s="6"/>
     </row>
     <row r="841">
-      <c r="C841" s="4"/>
+      <c r="A841" s="5"/>
+      <c r="F841" s="6"/>
     </row>
     <row r="842">
-      <c r="C842" s="4"/>
+      <c r="A842" s="5"/>
+      <c r="F842" s="6"/>
     </row>
     <row r="843">
-      <c r="C843" s="4"/>
+      <c r="A843" s="5"/>
+      <c r="F843" s="6"/>
     </row>
     <row r="844">
-      <c r="C844" s="4"/>
+      <c r="A844" s="5"/>
+      <c r="F844" s="6"/>
     </row>
     <row r="845">
-      <c r="C845" s="4"/>
+      <c r="A845" s="5"/>
+      <c r="F845" s="6"/>
     </row>
     <row r="846">
-      <c r="C846" s="4"/>
+      <c r="A846" s="5"/>
+      <c r="F846" s="6"/>
     </row>
     <row r="847">
-      <c r="C847" s="4"/>
+      <c r="A847" s="5"/>
+      <c r="F847" s="6"/>
     </row>
     <row r="848">
-      <c r="C848" s="4"/>
+      <c r="A848" s="5"/>
+      <c r="F848" s="6"/>
     </row>
     <row r="849">
-      <c r="C849" s="4"/>
+      <c r="A849" s="5"/>
+      <c r="F849" s="6"/>
     </row>
     <row r="850">
-      <c r="C850" s="4"/>
+      <c r="A850" s="5"/>
+      <c r="F850" s="6"/>
     </row>
     <row r="851">
-      <c r="C851" s="4"/>
+      <c r="A851" s="5"/>
+      <c r="F851" s="6"/>
     </row>
     <row r="852">
-      <c r="C852" s="4"/>
+      <c r="A852" s="5"/>
+      <c r="F852" s="6"/>
     </row>
     <row r="853">
-      <c r="C853" s="4"/>
+      <c r="A853" s="5"/>
+      <c r="F853" s="6"/>
     </row>
     <row r="854">
-      <c r="C854" s="4"/>
+      <c r="A854" s="5"/>
+      <c r="F854" s="6"/>
     </row>
     <row r="855">
-      <c r="C855" s="4"/>
+      <c r="A855" s="5"/>
+      <c r="F855" s="6"/>
     </row>
     <row r="856">
-      <c r="C856" s="4"/>
+      <c r="A856" s="5"/>
+      <c r="F856" s="6"/>
     </row>
     <row r="857">
-      <c r="C857" s="4"/>
+      <c r="A857" s="5"/>
+      <c r="F857" s="6"/>
     </row>
     <row r="858">
-      <c r="C858" s="4"/>
+      <c r="A858" s="5"/>
+      <c r="F858" s="6"/>
     </row>
     <row r="859">
-      <c r="C859" s="4"/>
+      <c r="A859" s="5"/>
+      <c r="F859" s="6"/>
     </row>
     <row r="860">
-      <c r="C860" s="4"/>
+      <c r="A860" s="5"/>
+      <c r="F860" s="6"/>
     </row>
     <row r="861">
-      <c r="C861" s="4"/>
+      <c r="A861" s="5"/>
+      <c r="F861" s="6"/>
     </row>
     <row r="862">
-      <c r="C862" s="4"/>
+      <c r="A862" s="5"/>
+      <c r="F862" s="6"/>
     </row>
     <row r="863">
-      <c r="C863" s="4"/>
+      <c r="A863" s="5"/>
+      <c r="F863" s="6"/>
     </row>
     <row r="864">
-      <c r="C864" s="4"/>
+      <c r="A864" s="5"/>
+      <c r="F864" s="6"/>
     </row>
     <row r="865">
-      <c r="C865" s="4"/>
+      <c r="A865" s="5"/>
+      <c r="F865" s="6"/>
     </row>
     <row r="866">
-      <c r="C866" s="4"/>
+      <c r="A866" s="5"/>
+      <c r="F866" s="6"/>
     </row>
     <row r="867">
-      <c r="C867" s="4"/>
+      <c r="A867" s="5"/>
+      <c r="F867" s="6"/>
     </row>
     <row r="868">
-      <c r="C868" s="4"/>
+      <c r="A868" s="5"/>
+      <c r="F868" s="6"/>
     </row>
     <row r="869">
-      <c r="C869" s="4"/>
+      <c r="A869" s="5"/>
+      <c r="F869" s="6"/>
     </row>
     <row r="870">
-      <c r="C870" s="4"/>
+      <c r="A870" s="5"/>
+      <c r="F870" s="6"/>
     </row>
     <row r="871">
-      <c r="C871" s="4"/>
+      <c r="A871" s="5"/>
+      <c r="F871" s="6"/>
     </row>
     <row r="872">
-      <c r="C872" s="4"/>
+      <c r="A872" s="5"/>
+      <c r="F872" s="6"/>
     </row>
     <row r="873">
-      <c r="C873" s="4"/>
+      <c r="A873" s="5"/>
+      <c r="F873" s="6"/>
     </row>
     <row r="874">
-      <c r="C874" s="4"/>
+      <c r="A874" s="5"/>
+      <c r="F874" s="6"/>
     </row>
     <row r="875">
-      <c r="C875" s="4"/>
+      <c r="A875" s="5"/>
+      <c r="F875" s="6"/>
     </row>
     <row r="876">
-      <c r="C876" s="4"/>
+      <c r="A876" s="5"/>
+      <c r="F876" s="6"/>
     </row>
     <row r="877">
-      <c r="C877" s="4"/>
+      <c r="A877" s="5"/>
+      <c r="F877" s="6"/>
     </row>
     <row r="878">
-      <c r="C878" s="4"/>
+      <c r="A878" s="5"/>
+      <c r="F878" s="6"/>
     </row>
     <row r="879">
-      <c r="C879" s="4"/>
+      <c r="A879" s="5"/>
+      <c r="F879" s="6"/>
     </row>
     <row r="880">
-      <c r="C880" s="4"/>
+      <c r="A880" s="5"/>
+      <c r="F880" s="6"/>
     </row>
     <row r="881">
-      <c r="C881" s="4"/>
+      <c r="A881" s="5"/>
+      <c r="F881" s="6"/>
     </row>
     <row r="882">
-      <c r="C882" s="4"/>
+      <c r="A882" s="5"/>
+      <c r="F882" s="6"/>
     </row>
     <row r="883">
-      <c r="C883" s="4"/>
+      <c r="A883" s="5"/>
+      <c r="F883" s="6"/>
     </row>
     <row r="884">
-      <c r="C884" s="4"/>
+      <c r="A884" s="5"/>
+      <c r="F884" s="6"/>
     </row>
     <row r="885">
-      <c r="C885" s="4"/>
+      <c r="A885" s="5"/>
+      <c r="F885" s="6"/>
     </row>
     <row r="886">
-      <c r="C886" s="4"/>
+      <c r="A886" s="5"/>
+      <c r="F886" s="6"/>
     </row>
     <row r="887">
-      <c r="C887" s="4"/>
+      <c r="A887" s="5"/>
+      <c r="F887" s="6"/>
     </row>
     <row r="888">
-      <c r="C888" s="4"/>
+      <c r="A888" s="5"/>
+      <c r="F888" s="6"/>
     </row>
     <row r="889">
-      <c r="C889" s="4"/>
+      <c r="A889" s="5"/>
+      <c r="F889" s="6"/>
     </row>
     <row r="890">
-      <c r="C890" s="4"/>
+      <c r="A890" s="5"/>
+      <c r="F890" s="6"/>
     </row>
     <row r="891">
-      <c r="C891" s="4"/>
+      <c r="A891" s="5"/>
+      <c r="F891" s="6"/>
     </row>
     <row r="892">
-      <c r="C892" s="4"/>
+      <c r="A892" s="5"/>
+      <c r="F892" s="6"/>
     </row>
     <row r="893">
-      <c r="C893" s="4"/>
+      <c r="A893" s="5"/>
+      <c r="F893" s="6"/>
     </row>
     <row r="894">
-      <c r="C894" s="4"/>
+      <c r="A894" s="5"/>
+      <c r="F894" s="6"/>
     </row>
     <row r="895">
-      <c r="C895" s="4"/>
+      <c r="A895" s="5"/>
+      <c r="F895" s="6"/>
     </row>
     <row r="896">
-      <c r="C896" s="4"/>
+      <c r="A896" s="5"/>
+      <c r="F896" s="6"/>
     </row>
     <row r="897">
-      <c r="C897" s="4"/>
+      <c r="A897" s="5"/>
+      <c r="F897" s="6"/>
     </row>
     <row r="898">
-      <c r="C898" s="4"/>
+      <c r="A898" s="5"/>
+      <c r="F898" s="6"/>
     </row>
     <row r="899">
-      <c r="C899" s="4"/>
+      <c r="A899" s="5"/>
+      <c r="F899" s="6"/>
     </row>
     <row r="900">
-      <c r="C900" s="4"/>
+      <c r="A900" s="5"/>
+      <c r="F900" s="6"/>
     </row>
     <row r="901">
-      <c r="C901" s="4"/>
+      <c r="A901" s="5"/>
+      <c r="F901" s="6"/>
     </row>
     <row r="902">
-      <c r="C902" s="4"/>
+      <c r="A902" s="5"/>
+      <c r="F902" s="6"/>
     </row>
     <row r="903">
-      <c r="C903" s="4"/>
+      <c r="A903" s="5"/>
+      <c r="F903" s="6"/>
     </row>
     <row r="904">
-      <c r="C904" s="4"/>
+      <c r="A904" s="5"/>
+      <c r="F904" s="6"/>
     </row>
     <row r="905">
-      <c r="C905" s="4"/>
+      <c r="A905" s="5"/>
+      <c r="F905" s="6"/>
     </row>
     <row r="906">
-      <c r="C906" s="4"/>
+      <c r="A906" s="5"/>
+      <c r="F906" s="6"/>
     </row>
     <row r="907">
-      <c r="C907" s="4"/>
+      <c r="A907" s="5"/>
+      <c r="F907" s="6"/>
     </row>
     <row r="908">
-      <c r="C908" s="4"/>
+      <c r="A908" s="5"/>
+      <c r="F908" s="6"/>
     </row>
     <row r="909">
-      <c r="C909" s="4"/>
+      <c r="A909" s="5"/>
+      <c r="F909" s="6"/>
     </row>
     <row r="910">
-      <c r="C910" s="4"/>
+      <c r="A910" s="5"/>
+      <c r="F910" s="6"/>
     </row>
     <row r="911">
-      <c r="C911" s="4"/>
+      <c r="A911" s="5"/>
+      <c r="F911" s="6"/>
     </row>
     <row r="912">
-      <c r="C912" s="4"/>
+      <c r="A912" s="5"/>
+      <c r="F912" s="6"/>
     </row>
     <row r="913">
-      <c r="C913" s="4"/>
+      <c r="A913" s="5"/>
+      <c r="F913" s="6"/>
     </row>
     <row r="914">
-      <c r="C914" s="4"/>
+      <c r="A914" s="5"/>
+      <c r="F914" s="6"/>
     </row>
     <row r="915">
-      <c r="C915" s="4"/>
+      <c r="A915" s="5"/>
+      <c r="F915" s="6"/>
     </row>
     <row r="916">
-      <c r="C916" s="4"/>
+      <c r="A916" s="5"/>
+      <c r="F916" s="6"/>
     </row>
     <row r="917">
-      <c r="C917" s="4"/>
+      <c r="A917" s="5"/>
+      <c r="F917" s="6"/>
     </row>
     <row r="918">
-      <c r="C918" s="4"/>
+      <c r="A918" s="5"/>
+      <c r="F918" s="6"/>
     </row>
     <row r="919">
-      <c r="C919" s="4"/>
+      <c r="A919" s="5"/>
+      <c r="F919" s="6"/>
     </row>
     <row r="920">
-      <c r="C920" s="4"/>
+      <c r="A920" s="5"/>
+      <c r="F920" s="6"/>
     </row>
     <row r="921">
-      <c r="C921" s="4"/>
+      <c r="A921" s="5"/>
+      <c r="F921" s="6"/>
     </row>
     <row r="922">
-      <c r="C922" s="4"/>
+      <c r="A922" s="5"/>
+      <c r="F922" s="6"/>
     </row>
     <row r="923">
-      <c r="C923" s="4"/>
+      <c r="A923" s="5"/>
+      <c r="F923" s="6"/>
     </row>
     <row r="924">
-      <c r="C924" s="4"/>
+      <c r="A924" s="5"/>
+      <c r="F924" s="6"/>
     </row>
     <row r="925">
-      <c r="C925" s="4"/>
+      <c r="A925" s="5"/>
+      <c r="F925" s="6"/>
     </row>
     <row r="926">
-      <c r="C926" s="4"/>
+      <c r="A926" s="5"/>
+      <c r="F926" s="6"/>
     </row>
     <row r="927">
-      <c r="C927" s="4"/>
+      <c r="A927" s="5"/>
+      <c r="F927" s="6"/>
     </row>
     <row r="928">
-      <c r="C928" s="4"/>
+      <c r="A928" s="5"/>
+      <c r="F928" s="6"/>
     </row>
     <row r="929">
-      <c r="C929" s="4"/>
+      <c r="A929" s="5"/>
+      <c r="F929" s="6"/>
     </row>
     <row r="930">
-      <c r="C930" s="4"/>
+      <c r="A930" s="5"/>
+      <c r="F930" s="6"/>
     </row>
     <row r="931">
-      <c r="C931" s="4"/>
+      <c r="A931" s="5"/>
+      <c r="F931" s="6"/>
     </row>
     <row r="932">
-      <c r="C932" s="4"/>
+      <c r="A932" s="5"/>
+      <c r="F932" s="6"/>
     </row>
     <row r="933">
-      <c r="C933" s="4"/>
+      <c r="A933" s="5"/>
+      <c r="F933" s="6"/>
     </row>
     <row r="934">
-      <c r="C934" s="4"/>
+      <c r="A934" s="5"/>
+      <c r="F934" s="6"/>
     </row>
     <row r="935">
-      <c r="C935" s="4"/>
+      <c r="A935" s="5"/>
+      <c r="F935" s="6"/>
     </row>
     <row r="936">
-      <c r="C936" s="4"/>
+      <c r="A936" s="5"/>
+      <c r="F936" s="6"/>
     </row>
     <row r="937">
-      <c r="C937" s="4"/>
+      <c r="A937" s="5"/>
+      <c r="F937" s="6"/>
     </row>
     <row r="938">
-      <c r="C938" s="4"/>
+      <c r="A938" s="5"/>
+      <c r="F938" s="6"/>
     </row>
     <row r="939">
-      <c r="C939" s="4"/>
+      <c r="A939" s="5"/>
+      <c r="F939" s="6"/>
     </row>
     <row r="940">
-      <c r="C940" s="4"/>
+      <c r="A940" s="5"/>
+      <c r="F940" s="6"/>
     </row>
     <row r="941">
-      <c r="C941" s="4"/>
+      <c r="A941" s="5"/>
+      <c r="F941" s="6"/>
     </row>
     <row r="942">
-      <c r="C942" s="4"/>
+      <c r="A942" s="5"/>
+      <c r="F942" s="6"/>
     </row>
     <row r="943">
-      <c r="C943" s="4"/>
+      <c r="A943" s="5"/>
+      <c r="F943" s="6"/>
     </row>
     <row r="944">
-      <c r="C944" s="4"/>
+      <c r="A944" s="5"/>
+      <c r="F944" s="6"/>
     </row>
     <row r="945">
-      <c r="C945" s="4"/>
+      <c r="A945" s="5"/>
+      <c r="F945" s="6"/>
     </row>
     <row r="946">
-      <c r="C946" s="4"/>
+      <c r="A946" s="5"/>
+      <c r="F946" s="6"/>
     </row>
     <row r="947">
-      <c r="C947" s="4"/>
+      <c r="A947" s="5"/>
+      <c r="F947" s="6"/>
     </row>
     <row r="948">
-      <c r="C948" s="4"/>
+      <c r="A948" s="5"/>
+      <c r="F948" s="6"/>
     </row>
     <row r="949">
-      <c r="C949" s="4"/>
+      <c r="A949" s="5"/>
+      <c r="F949" s="6"/>
     </row>
     <row r="950">
-      <c r="C950" s="4"/>
+      <c r="A950" s="5"/>
+      <c r="F950" s="6"/>
     </row>
     <row r="951">
-      <c r="C951" s="4"/>
+      <c r="A951" s="5"/>
+      <c r="F951" s="6"/>
     </row>
     <row r="952">
-      <c r="C952" s="4"/>
+      <c r="A952" s="5"/>
+      <c r="F952" s="6"/>
     </row>
     <row r="953">
-      <c r="C953" s="4"/>
+      <c r="A953" s="5"/>
+      <c r="F953" s="6"/>
     </row>
     <row r="954">
-      <c r="C954" s="4"/>
+      <c r="A954" s="5"/>
+      <c r="F954" s="6"/>
     </row>
     <row r="955">
-      <c r="C955" s="4"/>
+      <c r="A955" s="5"/>
+      <c r="F955" s="6"/>
     </row>
     <row r="956">
-      <c r="C956" s="4"/>
+      <c r="A956" s="5"/>
+      <c r="F956" s="6"/>
     </row>
     <row r="957">
-      <c r="C957" s="4"/>
+      <c r="A957" s="5"/>
+      <c r="F957" s="6"/>
     </row>
     <row r="958">
-      <c r="C958" s="4"/>
+      <c r="A958" s="5"/>
+      <c r="F958" s="6"/>
     </row>
     <row r="959">
-      <c r="C959" s="4"/>
+      <c r="A959" s="5"/>
+      <c r="F959" s="6"/>
     </row>
     <row r="960">
-      <c r="C960" s="4"/>
+      <c r="A960" s="5"/>
+      <c r="F960" s="6"/>
     </row>
     <row r="961">
-      <c r="C961" s="4"/>
+      <c r="A961" s="5"/>
+      <c r="F961" s="6"/>
     </row>
     <row r="962">
-      <c r="C962" s="4"/>
+      <c r="A962" s="5"/>
+      <c r="F962" s="6"/>
     </row>
     <row r="963">
-      <c r="C963" s="4"/>
+      <c r="A963" s="5"/>
+      <c r="F963" s="6"/>
     </row>
     <row r="964">
-      <c r="C964" s="4"/>
+      <c r="A964" s="5"/>
+      <c r="F964" s="6"/>
     </row>
     <row r="965">
-      <c r="C965" s="4"/>
+      <c r="A965" s="5"/>
+      <c r="F965" s="6"/>
     </row>
     <row r="966">
-      <c r="C966" s="4"/>
+      <c r="A966" s="5"/>
+      <c r="F966" s="6"/>
     </row>
     <row r="967">
-      <c r="C967" s="4"/>
+      <c r="A967" s="5"/>
+      <c r="F967" s="6"/>
     </row>
     <row r="968">
-      <c r="C968" s="4"/>
+      <c r="A968" s="5"/>
+      <c r="F968" s="6"/>
     </row>
     <row r="969">
-      <c r="C969" s="4"/>
+      <c r="A969" s="5"/>
+      <c r="F969" s="6"/>
     </row>
     <row r="970">
-      <c r="C970" s="4"/>
+      <c r="A970" s="5"/>
+      <c r="F970" s="6"/>
     </row>
     <row r="971">
-      <c r="C971" s="4"/>
+      <c r="A971" s="5"/>
+      <c r="F971" s="6"/>
     </row>
     <row r="972">
-      <c r="C972" s="4"/>
+      <c r="A972" s="5"/>
+      <c r="F972" s="6"/>
     </row>
     <row r="973">
-      <c r="C973" s="4"/>
+      <c r="A973" s="5"/>
+      <c r="F973" s="6"/>
     </row>
     <row r="974">
-      <c r="C974" s="4"/>
+      <c r="A974" s="5"/>
+      <c r="F974" s="6"/>
     </row>
     <row r="975">
-      <c r="C975" s="4"/>
+      <c r="A975" s="5"/>
+      <c r="F975" s="6"/>
     </row>
     <row r="976">
-      <c r="C976" s="4"/>
+      <c r="A976" s="5"/>
+      <c r="F976" s="6"/>
     </row>
     <row r="977">
-      <c r="C977" s="4"/>
+      <c r="A977" s="5"/>
+      <c r="F977" s="6"/>
     </row>
     <row r="978">
-      <c r="C978" s="4"/>
+      <c r="A978" s="5"/>
+      <c r="F978" s="6"/>
     </row>
     <row r="979">
-      <c r="C979" s="4"/>
+      <c r="A979" s="5"/>
+      <c r="F979" s="6"/>
     </row>
     <row r="980">
-      <c r="C980" s="4"/>
+      <c r="A980" s="5"/>
+      <c r="F980" s="6"/>
     </row>
     <row r="981">
-      <c r="C981" s="4"/>
+      <c r="A981" s="5"/>
+      <c r="F981" s="6"/>
     </row>
     <row r="982">
-      <c r="C982" s="4"/>
+      <c r="A982" s="5"/>
+      <c r="F982" s="6"/>
     </row>
     <row r="983">
-      <c r="C983" s="4"/>
+      <c r="A983" s="5"/>
+      <c r="F983" s="6"/>
     </row>
     <row r="984">
-      <c r="C984" s="4"/>
+      <c r="A984" s="5"/>
+      <c r="F984" s="6"/>
     </row>
     <row r="985">
-      <c r="C985" s="4"/>
+      <c r="A985" s="5"/>
+      <c r="F985" s="6"/>
     </row>
     <row r="986">
-      <c r="C986" s="4"/>
+      <c r="A986" s="5"/>
+      <c r="F986" s="6"/>
     </row>
     <row r="987">
-      <c r="C987" s="4"/>
+      <c r="A987" s="5"/>
+      <c r="F987" s="6"/>
     </row>
     <row r="988">
-      <c r="C988" s="4"/>
+      <c r="A988" s="5"/>
+      <c r="F988" s="6"/>
     </row>
     <row r="989">
-      <c r="C989" s="4"/>
+      <c r="A989" s="5"/>
+      <c r="F989" s="6"/>
     </row>
     <row r="990">
-      <c r="C990" s="4"/>
+      <c r="A990" s="5"/>
+      <c r="F990" s="6"/>
     </row>
     <row r="991">
-      <c r="C991" s="4"/>
+      <c r="A991" s="5"/>
+      <c r="F991" s="6"/>
     </row>
     <row r="992">
-      <c r="C992" s="4"/>
+      <c r="A992" s="5"/>
+      <c r="F992" s="6"/>
     </row>
     <row r="993">
-      <c r="C993" s="4"/>
+      <c r="A993" s="5"/>
+      <c r="F993" s="6"/>
     </row>
     <row r="994">
-      <c r="C994" s="4"/>
+      <c r="A994" s="5"/>
+      <c r="F994" s="6"/>
     </row>
     <row r="995">
-      <c r="C995" s="4"/>
+      <c r="A995" s="5"/>
+      <c r="F995" s="6"/>
     </row>
     <row r="996">
-      <c r="C996" s="4"/>
+      <c r="A996" s="5"/>
+      <c r="F996" s="6"/>
     </row>
     <row r="997">
-      <c r="C997" s="4"/>
+      <c r="A997" s="5"/>
+      <c r="F997" s="6"/>
     </row>
     <row r="998">
-      <c r="C998" s="4"/>
+      <c r="A998" s="5"/>
+      <c r="F998" s="6"/>
     </row>
     <row r="999">
-      <c r="C999" s="4"/>
+      <c r="A999" s="5"/>
+      <c r="F999" s="6"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="4"/>
+      <c r="A1000" s="5"/>
+      <c r="F1000" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
